--- a/trajectories/test_traj/test_ilqr3d_02.xlsx
+++ b/trajectories/test_traj/test_ilqr3d_02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05336993923254477</v>
+        <v>-0.05202966528927197</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7758831494874656</v>
+        <v>0.1248886506752169</v>
       </c>
       <c r="J2" t="n">
-        <v>3.712387886097109</v>
+        <v>0.114720644585371</v>
       </c>
       <c r="K2" t="n">
-        <v>1.073081810583673</v>
+        <v>-0.3540227421592533</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06076383971728646</v>
+        <v>-0.05200468541808406</v>
       </c>
       <c r="M2" t="n">
-        <v>1.519545832419098</v>
+        <v>0.3438453417377649</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001067396727267095</v>
+        <v>-0.01039931365677624</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01552765636724293</v>
+        <v>0.0249911526182089</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07425727475958759</v>
+        <v>0.02293035259009742</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02147467661221769</v>
+        <v>-0.07083827571387361</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001215148772626364</v>
+        <v>-0.01039588780948648</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03038509613472809</v>
+        <v>0.06877664918941662</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05336993922627635</v>
+        <v>-0.05202966306291158</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7758831491485109</v>
+        <v>0.1248887098868992</v>
       </c>
       <c r="J3" t="n">
-        <v>3.712387885589375</v>
+        <v>0.1147202766613635</v>
       </c>
       <c r="K3" t="n">
-        <v>1.073081806838072</v>
+        <v>-0.3540224647078118</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0607638397051194</v>
+        <v>-0.05200477569074306</v>
       </c>
       <c r="M3" t="n">
-        <v>1.519545832456675</v>
+        <v>0.3438455211335861</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002134793454408807</v>
+        <v>-0.02079862747724981</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03105531272769076</v>
+        <v>0.04998231791003747</v>
       </c>
       <c r="D4" t="n">
-        <v>0.148514549509008</v>
+        <v>0.04586063168435076</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04294935314943273</v>
+        <v>-0.1416764960546558</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002430297545009087</v>
+        <v>-0.02079179331982104</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06077019227020536</v>
+        <v>0.1375533342364591</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05336993922986807</v>
+        <v>-0.0520297659720874</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7758831490831796</v>
+        <v>0.1248887618044131</v>
       </c>
       <c r="J4" t="n">
-        <v>3.712387885590007</v>
+        <v>0.1147202029196846</v>
       </c>
       <c r="K4" t="n">
-        <v>1.073081809829494</v>
+        <v>-0.3540224641810978</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06076383971337936</v>
+        <v>-0.05200473268403131</v>
       </c>
       <c r="M4" t="n">
-        <v>1.519545832485879</v>
+        <v>0.3438456429971636</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003202190181623058</v>
+        <v>-0.03119796157767603</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0465829690868315</v>
+        <v>0.07497349330537872</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2227718242584429</v>
+        <v>0.06879089560918034</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06442402974655149</v>
+        <v>-0.2125147163164499</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003645446317557213</v>
+        <v>-0.03118769026850075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09115528840626827</v>
+        <v>0.2063300435673128</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05336993922660367</v>
+        <v>-0.05202970326083443</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7758831491041568</v>
+        <v>0.124889035249493</v>
       </c>
       <c r="J5" t="n">
-        <v>3.712387885556028</v>
+        <v>0.114720167225098</v>
       </c>
       <c r="K5" t="n">
-        <v>1.073081809925868</v>
+        <v>-0.3540221573779453</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06076383970314183</v>
+        <v>-0.05200468629714876</v>
       </c>
       <c r="M5" t="n">
-        <v>1.519545832392708</v>
+        <v>0.3438455747133697</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.004269586908771694</v>
+        <v>-0.04159728332406623</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06211062544639256</v>
+        <v>0.09996472331653977</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2970290990071966</v>
+        <v>0.09172115265124177</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08589870634560187</v>
+        <v>-0.2833528751012765</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004860595089900402</v>
+        <v>-0.04158357785994866</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1215403845404633</v>
+        <v>0.2751067393720362</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0533699392282859</v>
+        <v>-0.05202973678360415</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7758831491029368</v>
+        <v>0.1248892660947256</v>
       </c>
       <c r="J6" t="n">
-        <v>3.712387885568831</v>
+        <v>0.1147200375658239</v>
       </c>
       <c r="K6" t="n">
-        <v>1.073081809822549</v>
+        <v>-0.3540223413434674</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06076383970916307</v>
+        <v>-0.05200476186325342</v>
       </c>
       <c r="M6" t="n">
-        <v>1.519545832404325</v>
+        <v>0.3438458442034832</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.005336983635954165</v>
+        <v>-0.05199661176379671</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07763828180592933</v>
+        <v>0.1249559996851147</v>
       </c>
       <c r="D7" t="n">
-        <v>0.371286373756208</v>
+        <v>0.1146513836548181</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1073733829425849</v>
+        <v>-0.3541910707607912</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006075743862364093</v>
+        <v>-0.05197948072527084</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1519254806748909</v>
+        <v>0.3438834892224449</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0533699392310729</v>
+        <v>-0.05202979246491218</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7758831491205374</v>
+        <v>0.1248891197534592</v>
       </c>
       <c r="J7" t="n">
-        <v>3.712387885615042</v>
+        <v>0.1147200774342626</v>
       </c>
       <c r="K7" t="n">
-        <v>1.073081809876278</v>
+        <v>-0.3540225144048807</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06076383970904693</v>
+        <v>-0.05200470732852346</v>
       </c>
       <c r="M7" t="n">
-        <v>1.519545832395431</v>
+        <v>0.3438461096502006</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.006404380363192307</v>
+        <v>-0.06239595129331903</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09316593816581795</v>
+        <v>0.1499472467338322</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4455436485061434</v>
+        <v>0.1375816226837316</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1288480595406424</v>
+        <v>-0.4250293011072742</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007290892634825489</v>
+        <v>-0.06237537256940229</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1823105768091415</v>
+        <v>0.4126602920008295</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05336993922733772</v>
+        <v>-0.05202974754915585</v>
       </c>
       <c r="I8" t="n">
-        <v>0.775883149098373</v>
+        <v>0.1248887669966273</v>
       </c>
       <c r="J8" t="n">
-        <v>3.712387885559451</v>
+        <v>0.1147202155208207</v>
       </c>
       <c r="K8" t="n">
-        <v>1.07308180989091</v>
+        <v>-0.3540226002695114</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06076383970680924</v>
+        <v>-0.05200467689648904</v>
       </c>
       <c r="M8" t="n">
-        <v>1.519545832416443</v>
+        <v>0.3438453461815475</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.007471777090355638</v>
+        <v>-0.07279528186017714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1086935945252634</v>
+        <v>0.174938423060334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5198009232549655</v>
+        <v>0.1605118895471939</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1503227361389943</v>
+        <v>-0.4958675485777235</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008506041407242104</v>
+        <v>-0.07277125833346609</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2126956729438119</v>
+        <v>0.481436942042474</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05336993922878133</v>
+        <v>-0.05202973336152042</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7758831490733812</v>
+        <v>0.1248887942900846</v>
       </c>
       <c r="J9" t="n">
-        <v>3.712387885574398</v>
+        <v>0.1147205275730707</v>
       </c>
       <c r="K9" t="n">
-        <v>1.073081809961141</v>
+        <v>-0.3540219494636583</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06076383970626494</v>
+        <v>-0.05200466452451719</v>
       </c>
       <c r="M9" t="n">
-        <v>1.519545832418364</v>
+        <v>0.3438451334466818</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008539173817547962</v>
+        <v>-0.08319460964809303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1242212508842089</v>
+        <v>0.1999296049062053</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5940581980040873</v>
+        <v>0.183442218810594</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1717974127387508</v>
+        <v>-0.5667056657697231</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009721190179647749</v>
+        <v>-0.08316714161749027</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2430807690785212</v>
+        <v>0.550213549451658</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05336993922771082</v>
+        <v>-0.05202966530176003</v>
       </c>
       <c r="I10" t="n">
-        <v>0.775883149089395</v>
+        <v>0.1248885978692522</v>
       </c>
       <c r="J10" t="n">
-        <v>3.71238788559049</v>
+        <v>0.1147205399045167</v>
       </c>
       <c r="K10" t="n">
-        <v>1.07308180990097</v>
+        <v>-0.3540216378045085</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06076383971012154</v>
+        <v>-0.05200464556146134</v>
       </c>
       <c r="M10" t="n">
-        <v>1.519545832395309</v>
+        <v>0.3438446064896931</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.009606570544718761</v>
+        <v>-0.09359392377978892</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1397489072434748</v>
+        <v>0.2249207474244656</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6683154727535314</v>
+        <v>0.2063725506967536</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1932720893373027</v>
+        <v>-0.6375437206628676</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01093633895213063</v>
+        <v>-0.0935630211619614</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2734658652127687</v>
+        <v>0.6189900514033895</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05336993923056197</v>
+        <v>-0.05202964895049541</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7758831491054585</v>
+        <v>0.1248884472510347</v>
       </c>
       <c r="J11" t="n">
-        <v>3.712387885557568</v>
+        <v>0.1147203631106008</v>
       </c>
       <c r="K11" t="n">
-        <v>1.073081809934231</v>
+        <v>-0.354021468620473</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06076383970754939</v>
+        <v>-0.05200468250638728</v>
       </c>
       <c r="M11" t="n">
-        <v>1.519545832406197</v>
+        <v>0.3438447515378053</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01067396727194664</v>
+        <v>-0.1039932344912167</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1552765636030621</v>
+        <v>0.2499118597841033</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7425727475023163</v>
+        <v>0.2293028469967354</v>
       </c>
       <c r="E12" t="n">
-        <v>0.21474676593652</v>
+        <v>-0.7083817416931368</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01215148772456204</v>
+        <v>-0.103958908066026</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3038509613472341</v>
+        <v>0.6877665823805472</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05336993923094114</v>
+        <v>-0.05202968527260865</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7758831490952023</v>
+        <v>0.1248886304530935</v>
       </c>
       <c r="J12" t="n">
-        <v>3.712387885586862</v>
+        <v>0.1147205475227042</v>
       </c>
       <c r="K12" t="n">
-        <v>1.07308181001149</v>
+        <v>-0.354021462517304</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06076383970650769</v>
+        <v>-0.05200471007034804</v>
       </c>
       <c r="M12" t="n">
-        <v>1.51954583239719</v>
+        <v>0.3438447825075194</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0117413639991821</v>
+        <v>-0.1143925526313705</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1708042199624437</v>
+        <v>0.2749030088739502</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8168300222516873</v>
+        <v>0.2522331802652559</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2362214425372839</v>
+        <v>-0.7792197613982339</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0133666364969726</v>
+        <v>-0.11435480047707</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3342360574815201</v>
+        <v>0.7565431195629431</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05336993922854448</v>
+        <v>-0.05202970111427975</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7758831491143158</v>
+        <v>0.1248888120322504</v>
       </c>
       <c r="J13" t="n">
-        <v>3.712387885606653</v>
+        <v>0.1147203105323309</v>
       </c>
       <c r="K13" t="n">
-        <v>1.073081810018198</v>
+        <v>-0.354021298617383</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06076383970722825</v>
+        <v>-0.05200471096098428</v>
       </c>
       <c r="M13" t="n">
-        <v>1.519545832414866</v>
+        <v>0.3438445265805701</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01280876072636956</v>
+        <v>-0.1247918740066847</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1863318763222084</v>
+        <v>0.2998941942322958</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8910872970014549</v>
+        <v>0.2751634660511243</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2576961191381827</v>
+        <v>-0.8500577483614749</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01458178526939757</v>
+        <v>-0.1247506930921993</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3646211536161592</v>
+        <v>0.8253196054839663</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05336993923031653</v>
+        <v>-0.05202970484038161</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7758831490799983</v>
+        <v>0.1248891786110767</v>
       </c>
       <c r="J14" t="n">
-        <v>3.712387885578387</v>
+        <v>0.114720370232733</v>
       </c>
       <c r="K14" t="n">
-        <v>1.073081809996268</v>
+        <v>-0.3540215405981599</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06076383970760629</v>
+        <v>-0.05200474474234543</v>
       </c>
       <c r="M14" t="n">
-        <v>1.519545832388582</v>
+        <v>0.3438447630296979</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0138761574535924</v>
+        <v>-0.1351911960643914</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2018595326812863</v>
+        <v>0.3248854529692402</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9653445717506568</v>
+        <v>0.2980937637614431</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2791707957386416</v>
+        <v>-0.9208957837475382</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01579693404183011</v>
+        <v>-0.1351465924591821</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3950062497502725</v>
+        <v>0.8940961387418611</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05336993923021001</v>
+        <v>-0.05202968963310106</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7758831490857975</v>
+        <v>0.1248892164755399</v>
       </c>
       <c r="J15" t="n">
-        <v>3.712387885612259</v>
+        <v>0.1147204350080041</v>
       </c>
       <c r="K15" t="n">
-        <v>1.073081809918476</v>
+        <v>-0.3540217522634238</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06076383970662241</v>
+        <v>-0.05200471237741284</v>
       </c>
       <c r="M15" t="n">
-        <v>1.519545832409511</v>
+        <v>0.3438445028640329</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01494355418081332</v>
+        <v>-0.1455905150301433</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2173871890404798</v>
+        <v>0.3498767192559449</v>
       </c>
       <c r="D16" t="n">
-        <v>1.039601846500537</v>
+        <v>0.3210240744498577</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3006454723375422</v>
+        <v>-0.9917338614794589</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01701208281424293</v>
+        <v>-0.1455424853458986</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4253913458848044</v>
+        <v>0.9628726199390827</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05336993922856737</v>
+        <v>-0.05202962892211457</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7758831490877171</v>
+        <v>0.1248888518734465</v>
       </c>
       <c r="J16" t="n">
-        <v>3.712387885595549</v>
+        <v>0.1147203173965779</v>
       </c>
       <c r="K16" t="n">
-        <v>1.073081809883452</v>
+        <v>-0.3540218638191229</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06076383970646152</v>
+        <v>-0.05200466228053278</v>
       </c>
       <c r="M16" t="n">
-        <v>1.519545832403348</v>
+        <v>0.3438447421337485</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01601095090800128</v>
+        <v>-0.1559898218867769</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2329148453997122</v>
+        <v>0.3748679125834748</v>
       </c>
       <c r="D17" t="n">
-        <v>1.113859121250082</v>
+        <v>0.3439543616245473</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3221201489357427</v>
+        <v>-1.062571961567177</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01822723158665255</v>
+        <v>-0.1559383681682444</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4557764420192136</v>
+        <v>1.031649149066024</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05336993922873823</v>
+        <v>-0.0520296538996944</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7758831490988206</v>
+        <v>0.1248891899602904</v>
       </c>
       <c r="J17" t="n">
-        <v>3.712387885553891</v>
+        <v>0.1147200586017914</v>
       </c>
       <c r="K17" t="n">
-        <v>1.073081810004185</v>
+        <v>-0.3540216369631254</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06076383970740987</v>
+        <v>-0.0520046413311278</v>
       </c>
       <c r="M17" t="n">
-        <v>1.519545832404432</v>
+        <v>0.3438445960964794</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01707834763519273</v>
+        <v>-0.1663891336931836</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2484425017591672</v>
+        <v>0.3998591735882407</v>
       </c>
       <c r="D18" t="n">
-        <v>1.188116395998794</v>
+        <v>0.3668845970354028</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3435948255363619</v>
+        <v>-1.133410016241523</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01944238035908114</v>
+        <v>-0.166334246808308</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4861615381536437</v>
+        <v>1.100425648897664</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05336993922893483</v>
+        <v>-0.05202957864172812</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7758831490876631</v>
+        <v>0.1248887527886596</v>
       </c>
       <c r="J18" t="n">
-        <v>3.712387885593913</v>
+        <v>0.1147199011800484</v>
       </c>
       <c r="K18" t="n">
-        <v>1.07308180995918</v>
+        <v>-0.3540216464488828</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06076383970653993</v>
+        <v>-0.0520046699521288</v>
       </c>
       <c r="M18" t="n">
-        <v>1.519545832405429</v>
+        <v>0.3438444768232286</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01814574436238803</v>
+        <v>-0.1767884304433665</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2639701581183985</v>
+        <v>0.4248503470575067</v>
       </c>
       <c r="D19" t="n">
-        <v>1.262373670748307</v>
+        <v>0.3898148009048</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3650695021360799</v>
+        <v>-1.204248072811579</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02065752913149233</v>
+        <v>-0.1767301311901797</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5165466342880938</v>
+        <v>1.169202124885957</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05336993922846403</v>
+        <v>-0.05202958429283716</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7758831490942991</v>
+        <v>0.1248886483385601</v>
       </c>
       <c r="J19" t="n">
-        <v>3.712387885561264</v>
+        <v>0.1147194002837232</v>
       </c>
       <c r="K19" t="n">
-        <v>1.073081809874748</v>
+        <v>-0.3540214961931773</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06076383970604996</v>
+        <v>-0.05200472157033478</v>
       </c>
       <c r="M19" t="n">
-        <v>1.51954583241054</v>
+        <v>0.3438443590618062</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01921314108957389</v>
+        <v>-0.1871877283325332</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2794978144777625</v>
+        <v>0.4498414996389037</v>
       </c>
       <c r="D20" t="n">
-        <v>1.336630945497166</v>
+        <v>0.4127449044306104</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3865441787341061</v>
+        <v>-1.275086099315742</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02187267790389371</v>
+        <v>-0.1871260259029221</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5469317304226464</v>
+        <v>1.237978577299935</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05336993922722855</v>
+        <v>-0.05202957023297181</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7758831490734209</v>
+        <v>0.1248885038040588</v>
       </c>
       <c r="J20" t="n">
-        <v>3.712387885603058</v>
+        <v>0.1147192986214648</v>
       </c>
       <c r="K20" t="n">
-        <v>1.073081810006288</v>
+        <v>-0.3540213804668509</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06076383970718136</v>
+        <v>-0.05200475830942031</v>
       </c>
       <c r="M20" t="n">
-        <v>1.519545832398659</v>
+        <v>0.3438443090264982</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02028053781673505</v>
+        <v>-0.1975870232958115</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2950254708367085</v>
+        <v>0.4748326233228135</v>
       </c>
       <c r="D21" t="n">
-        <v>1.410888220246862</v>
+        <v>0.4356749876832325</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4080188553347665</v>
+        <v>-1.345924102589466</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02308782667631774</v>
+        <v>-0.1975219279669933</v>
       </c>
       <c r="G21" t="n">
-        <v>0.577316826556961</v>
+        <v>1.30675501968388</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05336993922771979</v>
+        <v>-0.05202963826547603</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7758831490951364</v>
+        <v>0.1248883102078289</v>
       </c>
       <c r="J21" t="n">
-        <v>3.712387885595142</v>
+        <v>0.1147192447984611</v>
       </c>
       <c r="K21" t="n">
-        <v>1.073081809979057</v>
+        <v>-0.3540212829222817</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06076383970716551</v>
+        <v>-0.05200476275582914</v>
       </c>
       <c r="M21" t="n">
-        <v>1.519545832396355</v>
+        <v>0.3438441817981179</v>
       </c>
     </row>
     <row r="22">
@@ -1320,40 +1320,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.021347934543906</v>
+        <v>-0.2079863320010027</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3105531271960897</v>
+        <v>0.4998237081565343</v>
       </c>
       <c r="D22" t="n">
-        <v>1.485145494996399</v>
+        <v>0.4586050601393559</v>
       </c>
       <c r="E22" t="n">
-        <v>0.42949353193488</v>
+        <v>-1.416762086332683</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02430297544874147</v>
+        <v>-0.2079178308840213</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6077019226912302</v>
+        <v>1.375531436568536</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05336993923017072</v>
+        <v>-0.05202970001475974</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7758831490960646</v>
+        <v>0.1248884924582479</v>
       </c>
       <c r="J22" t="n">
-        <v>3.712387885596158</v>
+        <v>0.1147190824546272</v>
       </c>
       <c r="K22" t="n">
-        <v>1.073081809899014</v>
+        <v>-0.3540213832098817</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06076383970683776</v>
+        <v>-0.05200475884825147</v>
       </c>
       <c r="M22" t="n">
-        <v>1.519545832410332</v>
+        <v>0.3438441764375123</v>
       </c>
     </row>
     <row r="23">
@@ -1361,40 +1361,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02241533127112608</v>
+        <v>-0.2183856529939682</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3260807835554894</v>
+        <v>0.5248148295577416</v>
       </c>
       <c r="D23" t="n">
-        <v>1.559402769745956</v>
+        <v>0.4815351001745619</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4509682085333909</v>
+        <v>-1.487600090173528</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02551812422115863</v>
+        <v>-0.2183137330427584</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6380870188257786</v>
+        <v>1.444307852396186</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05336993923006459</v>
+        <v>-0.05202966547652427</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7758831490872994</v>
+        <v>0.1248883424257786</v>
       </c>
       <c r="J23" t="n">
-        <v>3.712387885594078</v>
+        <v>0.1147194084909393</v>
       </c>
       <c r="K23" t="n">
-        <v>1.07308180994956</v>
+        <v>-0.3540214645343081</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06076383970686033</v>
+        <v>-0.05200476625410586</v>
       </c>
       <c r="M23" t="n">
-        <v>1.51954583240328</v>
+        <v>0.3438441255708154</v>
       </c>
     </row>
     <row r="24">
@@ -1402,40 +1402,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02348272799834402</v>
+        <v>-0.2287849671919922</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3416084399147133</v>
+        <v>0.5498059209001398</v>
       </c>
       <c r="D24" t="n">
-        <v>1.633660044495472</v>
+        <v>0.5044652054346692</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4724428851329169</v>
+        <v>-1.558438110279333</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02673327299357623</v>
+        <v>-0.2287096367004779</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6684721149601858</v>
+        <v>1.513084258065722</v>
       </c>
       <c r="H24" t="n">
-        <v>0.05336993922906046</v>
+        <v>-0.0520296866029805</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7758831490858988</v>
+        <v>0.1248883185943592</v>
       </c>
       <c r="J24" t="n">
-        <v>3.712387885584643</v>
+        <v>0.1147194185136658</v>
       </c>
       <c r="K24" t="n">
-        <v>1.073081809926999</v>
+        <v>-0.3540214549258596</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06076383970703009</v>
+        <v>-0.0520047480980412</v>
       </c>
       <c r="M24" t="n">
-        <v>1.519545832407582</v>
+        <v>0.3438441042769731</v>
       </c>
     </row>
     <row r="25">
@@ -1443,40 +1443,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02455012472554183</v>
+        <v>-0.2391842856315293</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3571360962739096</v>
+        <v>0.5747970074659008</v>
       </c>
       <c r="D25" t="n">
-        <v>1.707917319244799</v>
+        <v>0.5273953126070758</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4939175617319906</v>
+        <v>-1.629276128472209</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02794842176599723</v>
+        <v>-0.2391055367500453</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6988572110946792</v>
+        <v>1.581860659443993</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05336993922886817</v>
+        <v>-0.05202966676133014</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7758831490908025</v>
+        <v>0.1248882618901649</v>
       </c>
       <c r="J25" t="n">
-        <v>3.712387885603621</v>
+        <v>0.114719398142717</v>
       </c>
       <c r="K25" t="n">
-        <v>1.07308180989889</v>
+        <v>-0.354021397089526</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06076383970724301</v>
+        <v>-0.05200473584124789</v>
       </c>
       <c r="M25" t="n">
-        <v>1.519545832407671</v>
+        <v>0.3438441255561234</v>
       </c>
     </row>
     <row r="26">
@@ -1484,40 +1484,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02561752145273577</v>
+        <v>-0.2495836000062852</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3726637526332038</v>
+        <v>0.5997880826700979</v>
       </c>
       <c r="D26" t="n">
-        <v>1.782174593994506</v>
+        <v>0.5503254157447082</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5153922383305009</v>
+        <v>-1.700114135121665</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02916357053842249</v>
+        <v>-0.2495014343017044</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7292423072291746</v>
+        <v>1.650637065102856</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02486503080211108</v>
+        <v>-0.05202970077925764</v>
       </c>
       <c r="I26" t="n">
-        <v>1.648534355365664</v>
+        <v>0.1248883579506913</v>
       </c>
       <c r="J26" t="n">
-        <v>2.476796947790486</v>
+        <v>0.1147193985773032</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.7389964801240169</v>
+        <v>-0.354021486005709</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.1078442035746867</v>
+        <v>-0.0520047190654632</v>
       </c>
       <c r="M26" t="n">
-        <v>1.094442405689994</v>
+        <v>0.3438442478856478</v>
       </c>
     </row>
     <row r="27">
@@ -1525,40 +1525,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02611251647601657</v>
+        <v>-0.2599829213315516</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4056855748200107</v>
+        <v>0.624779177098737</v>
       </c>
       <c r="D27" t="n">
-        <v>1.831738300958186</v>
+        <v>0.5732555191103224</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5005911707460776</v>
+        <v>-1.770952159620218</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02700809672227634</v>
+        <v>-0.2598973284973941</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7511390607309838</v>
+        <v>1.719413495262459</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02486503079960262</v>
+        <v>-0.05202976842671708</v>
       </c>
       <c r="I27" t="n">
-        <v>1.648534355375329</v>
+        <v>0.124888518276669</v>
       </c>
       <c r="J27" t="n">
-        <v>2.476796947641004</v>
+        <v>0.1147188216943843</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.7389964801699302</v>
+        <v>-0.3540214353162534</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.1078442035683776</v>
+        <v>-0.05200469050595297</v>
       </c>
       <c r="M27" t="n">
-        <v>1.094442405745782</v>
+        <v>0.3438441534656483</v>
       </c>
     </row>
     <row r="28">
@@ -1566,40 +1566,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02660751149924739</v>
+        <v>-0.2703822560418551</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4387073970070104</v>
+        <v>0.6497703036292485</v>
       </c>
       <c r="D28" t="n">
-        <v>1.881302007918872</v>
+        <v>0.596185506889445</v>
       </c>
       <c r="E28" t="n">
-        <v>0.485790103160736</v>
+        <v>-1.841790173918979</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02485262290625637</v>
+        <v>-0.2702932169982581</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7730358142339091</v>
+        <v>1.788189906513016</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02486503079771463</v>
+        <v>-0.05202968446782379</v>
       </c>
       <c r="I28" t="n">
-        <v>1.648534355355801</v>
+        <v>0.1248884857382871</v>
       </c>
       <c r="J28" t="n">
-        <v>2.476796947646652</v>
+        <v>0.1147194193109746</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.7389964801709115</v>
+        <v>-0.354021553732963</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.1078442035682868</v>
+        <v>-0.05200470534596516</v>
       </c>
       <c r="M28" t="n">
-        <v>1.094442405696359</v>
+        <v>0.3438443097458751</v>
       </c>
     </row>
     <row r="29">
@@ -1607,40 +1607,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02710250652244038</v>
+        <v>-0.280781573961346</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4717292191936193</v>
+        <v>0.6747614236246129</v>
       </c>
       <c r="D29" t="n">
-        <v>1.930865714879671</v>
+        <v>0.6191156143765368</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4709890355753746</v>
+        <v>-1.912628211905254</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02269714909023827</v>
+        <v>-0.2806891084556306</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7949325677358456</v>
+        <v>1.856966349013747</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02486503079884128</v>
+        <v>-0.05202970325376174</v>
       </c>
       <c r="I29" t="n">
-        <v>1.648534355370243</v>
+        <v>0.1248885871795399</v>
       </c>
       <c r="J29" t="n">
-        <v>2.476796947643092</v>
+        <v>0.1147194309380568</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.7389964801738529</v>
+        <v>-0.3540217165120388</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.1078442035672861</v>
+        <v>-0.05200471998689473</v>
       </c>
       <c r="M29" t="n">
-        <v>1.094442405696313</v>
+        <v>0.3438444628904992</v>
       </c>
     </row>
     <row r="30">
@@ -1648,40 +1648,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02759750154565586</v>
+        <v>-0.2911808956926958</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5047510413805172</v>
+        <v>0.6997525639013922</v>
       </c>
       <c r="D30" t="n">
-        <v>1.980429421840398</v>
+        <v>0.6420457241025772</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4561879679899538</v>
+        <v>-1.98346628247274</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02054167527424024</v>
+        <v>-0.2910850028229799</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8168293212377813</v>
+        <v>1.925742822207937</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02486503079899075</v>
+        <v>-0.05202969523984474</v>
       </c>
       <c r="I30" t="n">
-        <v>1.648534355366606</v>
+        <v>0.1248886910854067</v>
       </c>
       <c r="J30" t="n">
-        <v>2.476796947644661</v>
+        <v>0.1147193579486131</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.7389964801720191</v>
+        <v>-0.3540216491977436</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.1078442035681113</v>
+        <v>-0.05200472699372065</v>
       </c>
       <c r="M30" t="n">
-        <v>1.094442405705587</v>
+        <v>0.3438446004883123</v>
       </c>
     </row>
     <row r="31">
@@ -1689,40 +1689,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02809249656887434</v>
+        <v>-0.3015802157544059</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5377728635673426</v>
+        <v>0.7247437250332289</v>
       </c>
       <c r="D31" t="n">
-        <v>2.029993128801157</v>
+        <v>0.6649758191967678</v>
       </c>
       <c r="E31" t="n">
-        <v>0.44138690040457</v>
+        <v>-2.05430433957507</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01838620145822559</v>
+        <v>-0.3014808985996112</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8387260747399023</v>
+        <v>1.994519322935159</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02486503079872797</v>
+        <v>-0.05202972389373394</v>
       </c>
       <c r="I31" t="n">
-        <v>1.648534355371158</v>
+        <v>0.1248889095733599</v>
       </c>
       <c r="J31" t="n">
-        <v>2.476796947648928</v>
+        <v>0.1147194013901244</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.7389964801754039</v>
+        <v>-0.35402139227195</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.1078442035690225</v>
+        <v>-0.05200473312716865</v>
       </c>
       <c r="M31" t="n">
-        <v>1.094442405697933</v>
+        <v>0.3438447692257284</v>
       </c>
     </row>
     <row r="32">
@@ -1730,40 +1730,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02858749159208757</v>
+        <v>-0.3119795417380938</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5707946857542592</v>
+        <v>0.7497349298722327</v>
       </c>
       <c r="D32" t="n">
-        <v>2.079556835762001</v>
+        <v>0.687905922987919</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4265858328191184</v>
+        <v>-2.125142345257089</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01623072764219281</v>
+        <v>-0.3118767956092008</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8606228282418703</v>
+        <v>2.063295857442327</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02486503079908763</v>
+        <v>-0.05202977276056397</v>
       </c>
       <c r="I32" t="n">
-        <v>1.648534355370878</v>
+        <v>0.1248891267349811</v>
       </c>
       <c r="J32" t="n">
-        <v>2.476796947645256</v>
+        <v>0.1147194188531723</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.7389964801688362</v>
+        <v>-0.3540219772752978</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.1078442035675333</v>
+        <v>-0.05200474299860397</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09444240570507</v>
+        <v>0.3438448871736405</v>
       </c>
     </row>
     <row r="33">
@@ -1771,40 +1771,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02908248661530798</v>
+        <v>-0.3223788773327008</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6038165079411699</v>
+        <v>0.7747261781876063</v>
       </c>
       <c r="D33" t="n">
-        <v>2.129120542722772</v>
+        <v>0.7108360302940568</v>
       </c>
       <c r="E33" t="n">
-        <v>0.411784765233798</v>
+        <v>-2.195980468097969</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01407525382618975</v>
+        <v>-0.3222726945918808</v>
       </c>
       <c r="G33" t="n">
-        <v>0.882519581743981</v>
+        <v>2.132072415565162</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02486503079839623</v>
+        <v>-0.05202973376464108</v>
       </c>
       <c r="I33" t="n">
-        <v>1.648534355373408</v>
+        <v>0.1248890158227803</v>
       </c>
       <c r="J33" t="n">
-        <v>2.476796947646512</v>
+        <v>0.1147195895693831</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.7389964801713484</v>
+        <v>-0.3540219515047152</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.1078442035683659</v>
+        <v>-0.05200471344385638</v>
       </c>
       <c r="M33" t="n">
-        <v>1.094442405703573</v>
+        <v>0.3438448177517489</v>
       </c>
     </row>
     <row r="34">
@@ -1812,40 +1812,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02957748163851455</v>
+        <v>-0.3327782050803428</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6368383301281316</v>
+        <v>0.7997174043055721</v>
       </c>
       <c r="D34" t="n">
-        <v>2.178684249683568</v>
+        <v>0.7337661718372659</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3969836976484276</v>
+        <v>-2.266818585797742</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01191978001017015</v>
+        <v>-0.3326685876734289</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9044163352460619</v>
+        <v>2.200848959790338</v>
       </c>
       <c r="H34" t="n">
-        <v>0.02486503079864619</v>
+        <v>-0.05202970264645174</v>
       </c>
       <c r="I34" t="n">
-        <v>1.648534355370016</v>
+        <v>0.124889160731366</v>
       </c>
       <c r="J34" t="n">
-        <v>2.476796947643662</v>
+        <v>0.1147195539227759</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.738996480167104</v>
+        <v>-0.3540218596053771</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.1078442035681568</v>
+        <v>-0.05200468853034008</v>
       </c>
       <c r="M34" t="n">
-        <v>1.094442405697559</v>
+        <v>0.3438447659909321</v>
       </c>
     </row>
     <row r="35">
@@ -1853,40 +1853,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03007247666172612</v>
+        <v>-0.3431775266641928</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6698601523150252</v>
+        <v>0.8247086594570134</v>
       </c>
       <c r="D35" t="n">
-        <v>2.228247956644307</v>
+        <v>0.7566963061837818</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3821826300631422</v>
+        <v>-2.337656685034554</v>
       </c>
       <c r="F35" t="n">
-        <v>0.009764306194154571</v>
+        <v>-0.3430644757681741</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9263130887480224</v>
+        <v>2.269625493663423</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02486503079870781</v>
+        <v>-0.05202970224468742</v>
       </c>
       <c r="I35" t="n">
-        <v>1.648534355369997</v>
+        <v>0.1248891521767762</v>
       </c>
       <c r="J35" t="n">
-        <v>2.476796947646936</v>
+        <v>0.1147194225152232</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.7389964801719977</v>
+        <v>-0.3540217321302662</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.107844203568389</v>
+        <v>-0.05200467249419744</v>
       </c>
       <c r="M35" t="n">
-        <v>1.094442405699196</v>
+        <v>0.3438447060141594</v>
       </c>
     </row>
     <row r="36">
@@ -1894,40 +1894,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03056747168493894</v>
+        <v>-0.3535768481548075</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7028819745019182</v>
+        <v>0.8496999129037462</v>
       </c>
       <c r="D36" t="n">
-        <v>2.277811663605112</v>
+        <v>0.7796264142602048</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3673815624777588</v>
+        <v>-2.408494758688798</v>
       </c>
       <c r="F36" t="n">
-        <v>0.007608832378134511</v>
+        <v>-0.353460360674945</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9482098422500156</v>
+        <v>2.338402015544605</v>
       </c>
       <c r="H36" t="n">
-        <v>0.02486503079894969</v>
+        <v>-0.05202967416306786</v>
       </c>
       <c r="I36" t="n">
-        <v>1.648534355366393</v>
+        <v>0.1248891684521671</v>
       </c>
       <c r="J36" t="n">
-        <v>2.47679694764295</v>
+        <v>0.1147194509650241</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.7389964801687477</v>
+        <v>-0.3540218203800259</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.1078442035687383</v>
+        <v>-0.052004656638313</v>
       </c>
       <c r="M36" t="n">
-        <v>1.094442405699078</v>
+        <v>0.3438446948000866</v>
       </c>
     </row>
     <row r="37">
@@ -1935,40 +1935,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03106246670815663</v>
+        <v>-0.3639761640463905</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7359037966887394</v>
+        <v>0.8746911695795504</v>
       </c>
       <c r="D37" t="n">
-        <v>2.327375370565836</v>
+        <v>0.8025565280185938</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3525804948924404</v>
+        <v>-2.479332850076385</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005453358562107428</v>
+        <v>-0.3638562423664596</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9701065957520064</v>
+        <v>2.40717853516043</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02486503079888349</v>
+        <v>-0.05202971167508689</v>
       </c>
       <c r="I37" t="n">
-        <v>1.648534355370867</v>
+        <v>0.1248893223529311</v>
       </c>
       <c r="J37" t="n">
-        <v>2.476796947647294</v>
+        <v>0.1147195727759811</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.7389964801724147</v>
+        <v>-0.3540216897145942</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.1078442035687958</v>
+        <v>-0.05200467491391295</v>
       </c>
       <c r="M37" t="n">
-        <v>1.094442405700753</v>
+        <v>0.3438444892968005</v>
       </c>
     </row>
     <row r="38">
@@ -1976,40 +1976,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03155746173137298</v>
+        <v>-0.3743754874076071</v>
       </c>
       <c r="C38" t="n">
-        <v>0.76892561887565</v>
+        <v>0.8996824571176674</v>
       </c>
       <c r="D38" t="n">
-        <v>2.376939077526648</v>
+        <v>0.8254866661466018</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3377794273070486</v>
+        <v>-2.550170915290302</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003297884746079228</v>
+        <v>-0.3742521276950026</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9920033492540308</v>
+        <v>2.475955013632643</v>
       </c>
       <c r="H38" t="n">
-        <v>0.02486503079864574</v>
+        <v>-0.05202966555807825</v>
       </c>
       <c r="I38" t="n">
-        <v>1.648534355367026</v>
+        <v>0.1248893243217257</v>
       </c>
       <c r="J38" t="n">
-        <v>2.476796947643332</v>
+        <v>0.1147195172721928</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.7389964801722736</v>
+        <v>-0.3540215980200681</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.1078442035685809</v>
+        <v>-0.05200467240427502</v>
       </c>
       <c r="M38" t="n">
-        <v>1.094442405699387</v>
+        <v>0.3438443826894177</v>
       </c>
     </row>
     <row r="39">
@@ -2017,40 +2017,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03205245675458459</v>
+        <v>-0.3847748015462979</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8019474410624838</v>
+        <v>0.924673745005574</v>
       </c>
       <c r="D39" t="n">
-        <v>2.426502784487381</v>
+        <v>0.8484167931507933</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3229783597216595</v>
+        <v>-2.621008962139205</v>
       </c>
       <c r="F39" t="n">
-        <v>0.001142410930055291</v>
+        <v>-0.3846480125551086</v>
       </c>
       <c r="G39" t="n">
-        <v>1.013900102756028</v>
+        <v>2.544731470758022</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02486503079839892</v>
+        <v>-0.0520296602659736</v>
       </c>
       <c r="I39" t="n">
-        <v>1.648534355370523</v>
+        <v>0.1248892904454876</v>
       </c>
       <c r="J39" t="n">
-        <v>2.476796947648047</v>
+        <v>0.1147194139282896</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.7389964801718295</v>
+        <v>-0.3540216822838511</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.107844203568683</v>
+        <v>-0.05200469627312708</v>
       </c>
       <c r="M39" t="n">
-        <v>1.094442405706969</v>
+        <v>0.343844421759828</v>
       </c>
     </row>
     <row r="40">
@@ -2058,40 +2058,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03254745177779124</v>
+        <v>-0.395174114693491</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8349692632493877</v>
+        <v>0.9496650261092192</v>
       </c>
       <c r="D40" t="n">
-        <v>2.476066491448207</v>
+        <v>0.8713468994746514</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3081772921362793</v>
+        <v>-2.691847025909125</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.001013062885970683</v>
+        <v>-0.3950439021855491</v>
       </c>
       <c r="G40" t="n">
-        <v>1.035796856258177</v>
+        <v>2.613507935706056</v>
       </c>
       <c r="H40" t="n">
-        <v>0.02486503079829723</v>
+        <v>-0.0520296788583174</v>
       </c>
       <c r="I40" t="n">
-        <v>1.648534355368896</v>
+        <v>0.1248893405211777</v>
       </c>
       <c r="J40" t="n">
-        <v>2.476796947644794</v>
+        <v>0.1147192431712481</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.7389964801724547</v>
+        <v>-0.3540218388886592</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.1078442035686343</v>
+        <v>-0.05200469614653514</v>
       </c>
       <c r="M40" t="n">
-        <v>1.094442405700394</v>
+        <v>0.3438445211793855</v>
       </c>
     </row>
     <row r="41">
@@ -2099,40 +2099,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03304244680099586</v>
+        <v>-0.4055734314347503</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8679910854362589</v>
+        <v>0.9746563172442826</v>
       </c>
       <c r="D41" t="n">
-        <v>2.525630198408969</v>
+        <v>0.8942769716474622</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2933762245508865</v>
+        <v>-2.762685120996748</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.003168536701995631</v>
+        <v>-0.4054397917598205</v>
       </c>
       <c r="G41" t="n">
-        <v>1.057693609760194</v>
+        <v>2.682284420557184</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02486503079865279</v>
+        <v>-0.0520296713408546</v>
       </c>
       <c r="I41" t="n">
-        <v>1.648534355369389</v>
+        <v>0.1248893433485292</v>
       </c>
       <c r="J41" t="n">
-        <v>2.476796947648256</v>
+        <v>0.1147193531216811</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.7389964801718041</v>
+        <v>-0.3540220290039446</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.1078442035681709</v>
+        <v>-0.05200470921654712</v>
       </c>
       <c r="M41" t="n">
-        <v>1.094442405707623</v>
+        <v>0.3438445190570736</v>
       </c>
     </row>
     <row r="42">
@@ -2140,40 +2140,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03353744182420757</v>
+        <v>-0.4159727468902509</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9010129076231399</v>
+        <v>0.9996476089730884</v>
       </c>
       <c r="D42" t="n">
-        <v>2.5751939053698</v>
+        <v>0.9172070658275395</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2785751569655069</v>
+        <v>-2.833523254120441</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.005324010518011429</v>
+        <v>-0.4158356839935639</v>
       </c>
       <c r="G42" t="n">
-        <v>1.079590363262356</v>
+        <v>2.751060904999608</v>
       </c>
       <c r="H42" t="n">
-        <v>0.02486503079849344</v>
+        <v>-0.0520297459940743</v>
       </c>
       <c r="I42" t="n">
-        <v>1.648534355370177</v>
+        <v>0.1248894611812395</v>
       </c>
       <c r="J42" t="n">
-        <v>2.476796947646986</v>
+        <v>0.1147193488422204</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.7389964801764678</v>
+        <v>-0.354021894377922</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.1078442035690555</v>
+        <v>-0.0520047089450602</v>
       </c>
       <c r="M42" t="n">
-        <v>1.094442405702541</v>
+        <v>0.3438445665022663</v>
       </c>
     </row>
     <row r="43">
@@ -2181,40 +2181,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03403243684741612</v>
+        <v>-0.4263720772505937</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9340347298100367</v>
+        <v>1.024638924312403</v>
       </c>
       <c r="D43" t="n">
-        <v>2.624757612330605</v>
+        <v>0.9401371591109182</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2637740893800339</v>
+        <v>-2.904361360326561</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.0074794843340447</v>
+        <v>-0.4262315761476497</v>
       </c>
       <c r="G43" t="n">
-        <v>1.101487116764416</v>
+        <v>2.819837398943317</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02486503079849404</v>
+        <v>-0.05202969385250313</v>
       </c>
       <c r="I43" t="n">
-        <v>1.648534355371372</v>
+        <v>0.1248892942293066</v>
       </c>
       <c r="J43" t="n">
-        <v>2.476796947646014</v>
+        <v>0.1147195091834582</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.7389964801675821</v>
+        <v>-0.3540218720269113</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.1078442035680247</v>
+        <v>-0.05200472166553243</v>
       </c>
       <c r="M43" t="n">
-        <v>1.094442405708627</v>
+        <v>0.3438446240651981</v>
       </c>
     </row>
     <row r="44">
@@ -2222,40 +2222,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03452743187062468</v>
+        <v>-0.4367713970302908</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9670565519969574</v>
+        <v>1.049630206207674</v>
       </c>
       <c r="D44" t="n">
-        <v>2.674321319291391</v>
+        <v>0.9630672845072035</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2489730217947388</v>
+        <v>-2.975199462029662</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.009634958150057578</v>
+        <v>-0.4366274708762038</v>
       </c>
       <c r="G44" t="n">
-        <v>1.123383870266598</v>
+        <v>2.888613904400827</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02486503079859196</v>
+        <v>-0.05202969522278276</v>
       </c>
       <c r="I44" t="n">
-        <v>1.648534355371595</v>
+        <v>0.1248891258732539</v>
       </c>
       <c r="J44" t="n">
-        <v>2.476796947646376</v>
+        <v>0.1147195962906789</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.7389964801721874</v>
+        <v>-0.3540219394641635</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.1078442035688412</v>
+        <v>-0.05200469480806445</v>
       </c>
       <c r="M44" t="n">
-        <v>1.094442405700032</v>
+        <v>0.3438445592796862</v>
       </c>
     </row>
     <row r="45">
@@ -2263,40 +2263,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03502242689383518</v>
+        <v>-0.4471707170777015</v>
       </c>
       <c r="C45" t="n">
-        <v>1.000078374183883</v>
+        <v>1.074621454415283</v>
       </c>
       <c r="D45" t="n">
-        <v>2.723885026252185</v>
+        <v>0.9859974273465554</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2341719542093515</v>
+        <v>-3.04603757723504</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.01179043196608675</v>
+        <v>-0.4470233602013697</v>
       </c>
       <c r="G45" t="n">
-        <v>1.145280623768608</v>
+        <v>2.957390396903414</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02486503079868349</v>
+        <v>-0.05202966583381151</v>
       </c>
       <c r="I45" t="n">
-        <v>1.648534355371882</v>
+        <v>0.1248889900594965</v>
       </c>
       <c r="J45" t="n">
-        <v>2.476796947648132</v>
+        <v>0.1147194316838316</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.7389964801677271</v>
+        <v>-0.3540219078381128</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.1078442035680935</v>
+        <v>-0.05200469468487803</v>
       </c>
       <c r="M45" t="n">
-        <v>1.094442405701193</v>
+        <v>0.3438445593205618</v>
       </c>
     </row>
     <row r="46">
@@ -2304,40 +2304,40 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03551742191704753</v>
+        <v>-0.4575700314095975</v>
       </c>
       <c r="C46" t="n">
-        <v>1.033100196370814</v>
+        <v>1.099612675397622</v>
       </c>
       <c r="D46" t="n">
-        <v>2.773448733213013</v>
+        <v>1.008927537256653</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2193708866240534</v>
+        <v>-3.116875686199856</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.01394590578210103</v>
+        <v>-0.4574192495264288</v>
       </c>
       <c r="G46" t="n">
-        <v>1.167177377270641</v>
+        <v>3.026166889411356</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02486503079870824</v>
+        <v>-0.0520296656005587</v>
       </c>
       <c r="I46" t="n">
-        <v>1.648534355375838</v>
+        <v>0.1248889900871395</v>
       </c>
       <c r="J46" t="n">
-        <v>2.476796947647805</v>
+        <v>0.1147194315302373</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.7389964801701394</v>
+        <v>-0.3540219079543738</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.1078442035687741</v>
+        <v>-0.05200469484819126</v>
       </c>
       <c r="M46" t="n">
-        <v>1.094442405701309</v>
+        <v>0.343844559325283</v>
       </c>
     </row>
     <row r="47">
@@ -2345,40 +2345,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.03601241694026038</v>
+        <v>-0.4679693456803924</v>
       </c>
       <c r="C47" t="n">
-        <v>1.066122018557824</v>
+        <v>1.124603896385045</v>
       </c>
       <c r="D47" t="n">
-        <v>2.823012440173835</v>
+        <v>1.031857647165306</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2045698190387071</v>
+        <v>-3.187713795167178</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.01610137959812889</v>
+        <v>-0.4678151388731405</v>
       </c>
       <c r="G47" t="n">
-        <v>1.189074130772676</v>
+        <v>3.09494338192233</v>
       </c>
       <c r="H47" t="n">
-        <v>0.02486503079842965</v>
+        <v>-0.05202970950932186</v>
       </c>
       <c r="I47" t="n">
-        <v>1.648534355369635</v>
+        <v>0.12488905008359</v>
       </c>
       <c r="J47" t="n">
-        <v>2.47679694764675</v>
+        <v>0.1147193952353252</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.7389964801644581</v>
+        <v>-0.3540218925289139</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.1078442035689299</v>
+        <v>-0.05200469468571443</v>
       </c>
       <c r="M47" t="n">
-        <v>1.094442405700778</v>
+        <v>0.3438445592907166</v>
       </c>
     </row>
     <row r="48">
@@ -2386,40 +2386,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03650741196346764</v>
+        <v>-0.4783686687451826</v>
       </c>
       <c r="C48" t="n">
-        <v>1.09914384074471</v>
+        <v>1.149595129380553</v>
       </c>
       <c r="D48" t="n">
-        <v>2.872576147134636</v>
+        <v>1.054787749796533</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1897687514534746</v>
+        <v>-3.258551900973822</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.01825685341415972</v>
+        <v>-0.4782110281953085</v>
       </c>
       <c r="G48" t="n">
-        <v>1.210970884274701</v>
+        <v>3.163719874422693</v>
       </c>
       <c r="H48" t="n">
-        <v>0.02486503079839108</v>
+        <v>-0.05202966563249593</v>
       </c>
       <c r="I48" t="n">
-        <v>1.64853435537189</v>
+        <v>0.1248885351258334</v>
       </c>
       <c r="J48" t="n">
-        <v>2.476796947646485</v>
+        <v>0.1147194316701906</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.7389964801694476</v>
+        <v>-0.3540219079563761</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.1078442035690873</v>
+        <v>-0.05200469467216332</v>
       </c>
       <c r="M48" t="n">
-        <v>1.094442405703514</v>
+        <v>0.3438445593052296</v>
       </c>
     </row>
     <row r="49">
@@ -2427,40 +2427,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.03700240698667414</v>
+        <v>-0.488767983024627</v>
       </c>
       <c r="C49" t="n">
-        <v>1.132165662931641</v>
+        <v>1.174586259257908</v>
       </c>
       <c r="D49" t="n">
-        <v>2.922139854095431</v>
+        <v>1.077717859720459</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1749676838681421</v>
+        <v>-3.329390009942929</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.02041232723019371</v>
+        <v>-0.4886069175182154</v>
       </c>
       <c r="G49" t="n">
-        <v>1.232867637776781</v>
+        <v>3.232496366924052</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02486503079852849</v>
+        <v>-0.05202966564562994</v>
       </c>
       <c r="I49" t="n">
-        <v>1.648534355368837</v>
+        <v>0.1248889900951294</v>
       </c>
       <c r="J49" t="n">
-        <v>2.476796947641308</v>
+        <v>0.1147194317384906</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.738996480171231</v>
+        <v>-0.3540219078457614</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.1078442035690388</v>
+        <v>-0.0520046946815718</v>
       </c>
       <c r="M49" t="n">
-        <v>1.0944424057026</v>
+        <v>0.343844559394045</v>
       </c>
     </row>
     <row r="50">
@@ -2468,40 +2468,2090 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.03749740200988338</v>
+        <v>-0.4991672973042234</v>
       </c>
       <c r="C50" t="n">
-        <v>1.165187485118511</v>
+        <v>1.199577480245709</v>
       </c>
       <c r="D50" t="n">
-        <v>2.971703561056123</v>
+        <v>1.100647969635653</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1601666162827739</v>
+        <v>-3.400228118912065</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.02256780104622673</v>
+        <v>-0.4990028068465083</v>
       </c>
       <c r="G50" t="n">
-        <v>1.254764391278842</v>
+        <v>3.30127285942848</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0248650307982325</v>
+        <v>-0.05202966550581152</v>
       </c>
       <c r="I50" t="n">
-        <v>1.648534355371693</v>
+        <v>0.1248889900604104</v>
       </c>
       <c r="J50" t="n">
-        <v>2.476796947645711</v>
+        <v>0.1147193953186504</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.738996480171951</v>
+        <v>-0.3540218925367131</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.1078442035696995</v>
+        <v>-0.05200469474245578</v>
       </c>
       <c r="M50" t="n">
-        <v>1.094442405702919</v>
+        <v>0.3438445593428042</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.5095666115630393</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.224568701229497</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.123578072270518</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-3.471066224720889</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.509398696172489</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.370049351934862</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.03275747296505766</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.07886213837467813</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.07252958763055264</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.2230972776283835</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.03269076738479271</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.2168370235671091</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.5161275455346441</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.24032797063479</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.138036971064403</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-3.515734836474016</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.5159507599106614</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.413423873654486</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.03275752968637972</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.07886218872392348</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.07252923575285326</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.2230972765343143</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.03269077020854638</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.2168370183059096</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.52268848200695</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.256087247836045</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.152495798074423</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-3.560403447425878</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.5225028240488296</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.456798394240517</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0.03275751367789016</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.07886215952995329</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.07252959247767836</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.2230972611910096</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.032690769287683</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.216837014255475</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.529249415117991</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.271846518949495</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.166954695769675</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-3.605072055650984</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.5290548880452984</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.500172913937494</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.03275751440789618</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.07886216110222746</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.07252961536915799</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.2230972712890736</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.03269076938113358</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.216837015004387</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.5358103484450367</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.287605790209067</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.181413598038938</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-3.649740666024238</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.5356069520772375</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.543547433862344</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.03275751382089056</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.07886216181979584</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.07252961340190905</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.2230972720456677</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.03269076967308138</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.2168370150220085</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.5423712817217421</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.303365061469434</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.195872500184381</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-3.694409276392727</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.5421590161654745</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3.586921953789787</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.03275751291462151</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0788621617935626</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.07252958989737451</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.2230971180049707</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.03269076896322076</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.2168370150922101</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.5489322149477885</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.319124332753141</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.210331397466776</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-3.739077855998991</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.5487110801702197</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.63029647373044</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.03275752799756203</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.07886219140168314</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.07252961433282207</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.223097272003899</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.03269076882543231</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.2168370151802606</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.5554931510820807</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.334883610111989</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.22479029966459</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-3.783746466385739</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.5552631441349473</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3.673670993688214</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-0.03275751294933869</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.07886216142466299</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.07252961451422092</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.2230972718646693</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.03269076907463386</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.2168370145291192</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.562054084320178</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.350642881366376</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.239249201894426</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-3.828415076700432</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.5618152081799832</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3.717045513517613</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.03275751325803589</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0788621613803351</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.07252958999710968</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.2230972623852646</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.03269076855963249</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.216837015174292</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.568615017576738</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.366402152648833</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.253708099262649</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-3.873083685242634</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.5683672721157432</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3.760420033476638</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.03275751340546491</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.07886216146147688</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.07252961412361036</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.2230972716314078</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.03269076728133768</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.2168370151599106</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.5751759508484411</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.382161423882347</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.268167001476476</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-3.917752295635418</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.5749193357878862</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3.803794553434072</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-0.03275751315945308</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.07886216106412741</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.07252961442890268</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.2230972722087615</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.0326907687037874</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.2168370150902206</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.5817368840598902</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.397920695117328</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.282625903673826</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-3.962420906035808</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.5814713997494305</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3.847169073375747</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.03275752777320392</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.07886219164130613</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.07252959013343883</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-0.2230972622610649</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.03269076853121078</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.2168370152275543</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.588297820185133</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.413679972505894</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.297084801057937</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-4.007089514535127</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.5880234636792789</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.890543593345049</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.0327575135847414</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0788621613969068</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.07252961401061563</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.2230972712800079</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.03269076870424215</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.2168370146984557</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.5948587534636572</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.429439243789976</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.311543703278911</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-4.051758124837815</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.5945755276434153</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.933918113207759</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.03275751354425935</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.0788621611461737</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.07252961430923184</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.2230972719360496</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.03269076900960499</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.2168370788498351</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.6014196867309948</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.445198515029641</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.326002605494133</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-4.096426735226041</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.6011275916645769</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3.977292645919172</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.03275751326490713</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.07886216119132507</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.07252959034978634</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.2230972623994724</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.03269076877677435</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.2168370151751446</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.6079806199401246</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.460957786302832</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.340461502897173</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-4.141095343734659</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.6076796556414916</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4.02066716587572</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.03275751341142327</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.07886216111650336</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.07252961413726178</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.2230972718096936</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.03269076880792454</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.2168370151073304</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.6145415531837244</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.47671705755789</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.354920405085707</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-4.18576395411379</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6142317196263645</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4.064041685817918</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.0327575279251332</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.07886219146434807</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.07252961406878083</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.2230972716837825</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.0326907689179734</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.2168370150129135</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.6211024893189716</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.492476334905597</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.369379307276159</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-4.23043256450097</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.6207837836330197</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4.107416205742336</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.03275751337994426</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.07886216130438854</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.07252958999257819</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-0.223097261840265</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-0.03269076869491983</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.2168370146462735</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.6276634225474282</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.508235606174263</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.383838204666156</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-4.275101172931963</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.6273358475987476</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.150790725595428</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-0.03275751536670679</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.07886216127150709</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.07252961395253783</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-0.2230972716624761</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-0.03269076892115663</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.2168370151018166</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.6342243561819287</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.523994877439223</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.398297106850819</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-4.319769783319121</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.6338879116043568</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4.194165245539173</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.03275751354332035</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.07886216145366438</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.07252961409021751</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.2230972717389985</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-0.03269076883861999</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.2168370150838541</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.6407852894340778</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.539754148704297</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.412756009047123</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-4.364438393704117</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.6404399755980063</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4.237539765479372</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.03275751345688906</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.07886216138360647</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.07252958967935454</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-0.2230972624082332</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-0.03269076877791122</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.2168370150811256</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.6473462226834072</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.555513419988584</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.427214906364431</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-4.409107002226298</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.6469920395751938</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4.28091428541741</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-0.03275752797268593</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.07886219174281747</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.07252961405678522</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-0.223097271772952</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-0.03269076883361777</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.2168370151196086</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.6539071588158349</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.57127269736926</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.441673808562134</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-4.453775612614547</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.6535441035706622</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.324288805363861</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-0.03275751337431818</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0788619341526529</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.07252961410998748</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-0.2230972713626089</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-0.03269076879814747</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.2168370146920324</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.660468092048248</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.587031923177902</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.456132710767152</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-4.498444222920009</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.66009616756272</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4.367663325224706</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-0.03275751349031843</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.07886216134113382</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.07252959006337935</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-0.223097262355816</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-0.03269076887750089</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.2168370151327395</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.6670290252909836</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.602791194442908</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.47059160814544</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-4.543112831436699</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.6666482315702847</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4.411037845174113</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-0.03275751345278616</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0788621612220743</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.07252961406978893</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-0.2230972717503531</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-0.03269076884407696</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.216837015105682</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.6735899585234875</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.618550465696295</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.485050510343196</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-4.587781441820366</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.6732002955697094</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4.4544123651182</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-0.03275751354263362</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.07886216120078199</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.07252961400661613</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-0.223097271698199</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-0.03269076878086707</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.2168370151150043</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.6801508917756365</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.634309736949943</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.499509412537613</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-4.632450052200565</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.6797523595566286</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4.497786885062968</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.03275752787069694</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.07886216131623526</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.07252959011743321</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-0.2230972624007843</v>
+      </c>
+      <c r="L77" t="n">
+        <v>-0.03269076879269051</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.216837015092608</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.686711827903926</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.650069008212107</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.513968309929009</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-4.677118660717188</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.6863044235493231</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4.541161405002621</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.03275751348842406</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.07886216129335073</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.07252961409925121</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-0.2230972713342871</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-0.03269076866695286</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.2168370146951588</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.6932727611577576</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.665828279475714</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.528427212126757</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-4.721787271033199</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.6928564875180978</v>
+      </c>
+      <c r="G79" t="n">
+        <v>4.584535924863079</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-0.03275751344904819</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0788621612555028</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.07252961408031466</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-0.2230972717518489</v>
+      </c>
+      <c r="L79" t="n">
+        <v>-0.03269076888363998</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.2168370151740078</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.6998336944018575</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.681587550735672</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.542886114318684</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-4.766455881416729</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.6994085515269358</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4.627910444817875</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-0.03275751349105778</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.07886216125098192</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.07252959009200777</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-0.2230972624349159</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-0.03269076879178101</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.2168370151380259</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.7063946276560529</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.697346821990514</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.557345011704251</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-4.811124489934148</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.7059606155235411</v>
+      </c>
+      <c r="G81" t="n">
+        <v>4.671284964765531</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.03275751356463467</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.07886216113389879</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.07252961404541201</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-0.2230972716988463</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-0.03269076881656474</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.2168370538319095</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.7129555609162054</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.713106093242753</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.571803913904463</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-4.85579310031803</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.7125126795257397</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4.714659492456875</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-0.03275751360972046</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.07886216121326463</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.07252961398495918</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-0.2230972716834165</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-0.03269076880701505</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.2168370151321142</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.719516494172538</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.728865364501961</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.586262816093443</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-4.90046171069873</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.7190647435237547</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4.758034012402735</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-0.03275751356156726</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.07886216119217158</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.07252959013576576</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.2230972619400524</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-0.03269076866877185</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.21683701467839</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.7260774274352826</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.744624635756826</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.600721713476116</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-4.945130319121741</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.7256168074937119</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4.801408532257168</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-0.03275751356896318</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.07886216120056155</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.0725296141100311</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-0.2230972717668983</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-0.03269076879132626</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.2168370151400154</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.7326383606937525</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.760383907014578</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.615180615670959</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-4.989798929504522</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.7321688714885437</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4.844783052204119</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-0.03275751346293298</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.07886216119467603</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.07252961406910689</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-0.223097271720373</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-0.03269076878791566</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.2168370151316594</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.7391992939328957</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.77614317827307</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.629639517858526</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-5.034467539885108</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.738720935484967</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4.888157572148911</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-0.03275751351625072</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.07886216120734257</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.07252958971956916</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-0.2230972624396992</v>
+      </c>
+      <c r="L86" t="n">
+        <v>-0.03269078423682004</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.216837015128192</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.7457602271859087</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.791902449538371</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.64409841517006</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-5.079136148401433</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.7452730025652141</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4.931532092092315</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-0.03275751355655566</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.07886216118356601</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.07252961404835297</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-0.2230972717246256</v>
+      </c>
+      <c r="L87" t="n">
+        <v>-0.03269076873880294</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.2168370151179033</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.7523211604356931</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.807661720794668</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.658557317359082</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-5.123804758780565</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.7518250665497686</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4.97490661203283</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-0.03275751356330693</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.07886216116194135</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.07252961408466561</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-0.2230972713733438</v>
+      </c>
+      <c r="L88" t="n">
+        <v>-0.03269076869219134</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.21683701467947</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.7588820936852045</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.823420992049511</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.67301621955101</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-5.168473369092177</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.758377130528184</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.018281131886718</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-0.03275751355068728</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.07886216117660695</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.07252959008620991</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-0.2230972624655636</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-0.03269076876244981</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.2168370151220529</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.7654430269365804</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.839180263307286</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.687475116932284</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-5.213141977610322</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.7649291945159672</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.061655651828394</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.03275751351362537</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.07886216115121959</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.07252961404869403</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-0.223097271720874</v>
+      </c>
+      <c r="L90" t="n">
+        <v>-0.03269076873584709</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.2168370151378554</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.7720039601819992</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.854939534561423</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.701934019118465</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-5.257810587991614</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.7714812584982023</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5.105030171773231</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-0.03275751351526495</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.0788621611452331</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.07252961405135563</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-0.2230972717317879</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-0.03269076877609223</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.2168370151121621</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.7785648934350576</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.870698805818732</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.716392921315764</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-5.302479198369266</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.7780333224887142</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.148404691712566</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-0.03275751357183303</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.07886216117655011</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.07252959007864973</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-0.223097262528205</v>
+      </c>
+      <c r="L92" t="n">
+        <v>-0.03269076876927102</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.2168370151378554</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.7851258266892075</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.886458077073586</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.730851818692616</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-5.347147806891209</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.7845853864779071</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5.191779211657401</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-0.03275751359275141</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.07886216114751766</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.07252961182397749</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-0.2230972712826685</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-0.03269076868286902</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.2168370146952725</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.7916867599519066</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.902217348328451</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.745310720428818</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-5.391816417198807</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.7911374504476367</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.235153731513904</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-0.03275751360866756</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.07886216118013124</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.0725296140629333</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-0.2230972717171223</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-0.03269076875403698</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.2168370151089221</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.7982476932134234</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.917976619582565</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.759769622619302</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-5.436485027574983</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.7976895144366478</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5.278528251452919</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-0.03275751361594352</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.0788621611545517</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.07252959004218468</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-0.223097262509333</v>
+      </c>
+      <c r="L95" t="n">
+        <v>-0.03269076881201727</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.2168370219151825</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.8048086264734849</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.933735890837385</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.774228519997592</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-5.481153636094606</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.8042415784314338</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5.321902772756338</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-0.03275751335392366</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.07886216112942197</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.07252961404402282</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-0.2230972717103011</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-0.03269076875517385</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.216837015114379</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.8113695596998952</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.949495162093966</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.788687422196335</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-5.525822246467962</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.8107936424177166</v>
+      </c>
+      <c r="G97" t="n">
+        <v>5.365277292696444</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-0.03275751346974225</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.07886216116195589</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.07252961401197318</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-0.2230972717245119</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-0.0326907686994673</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.2168370151091494</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.8179304929379925</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.965254433351719</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.803146324378081</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-5.57049085684416</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.8173457063985421</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5.408651812635506</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-0.03275751357137828</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.07886216116557933</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.07252958786809297</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-0.2230972712625459</v>
+      </c>
+      <c r="L98" t="n">
+        <v>-0.03269076874471466</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.2168370146710004</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.8244914261935066</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.981013704610199</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.817605221309324</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-5.615159467147734</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.8238977703771394</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5.452026332487302</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-0.03275751358638494</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.07886216114375146</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.07252961401194476</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-0.2230972717098463</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-0.03269076873880294</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.2168370151091494</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.831052359452022</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.996772975865769</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.832064123491065</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-5.659828077523909</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.8304498343593747</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5.495400852426545</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-0.03275751357888161</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.07886216116194135</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.07252961402652509</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-0.2230970657889773</v>
+      </c>
+      <c r="L100" t="n">
+        <v>-0.03269076351716649</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.2168369705177611</v>
       </c>
     </row>
   </sheetData>

--- a/trajectories/test_traj/test_ilqr3d_02.xlsx
+++ b/trajectories/test_traj/test_ilqr3d_02.xlsx
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.05202966528927197</v>
+        <v>0.1282658772851343</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1248886506752169</v>
+        <v>-0.0579073110398749</v>
       </c>
       <c r="J2" t="n">
-        <v>0.114720644585371</v>
+        <v>-1.182677762386519</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3540227421592533</v>
+        <v>-0.1077193645281534</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.05200468541808406</v>
+        <v>0.04141890719976694</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3438453417377649</v>
+        <v>-0.988957819547583</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.01039931365677624</v>
+        <v>0.02565315032656196</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0249911526182089</v>
+        <v>-0.01157978319474979</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02293035259009742</v>
+        <v>-0.2365352748536814</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.07083827571387361</v>
+        <v>-0.02154929225030432</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01039588780948648</v>
+        <v>0.008279323034250918</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06877664918941662</v>
+        <v>-0.1977926722481395</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.05202966306291158</v>
+        <v>0.1282658782392643</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1248887098868992</v>
+        <v>-0.05790731107283147</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1147202766613635</v>
+        <v>-1.182682257486744</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3540224647078118</v>
+        <v>-0.1078504120753265</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05200477569074306</v>
+        <v>0.04141890791993872</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3438455211335861</v>
+        <v>-0.9889679166587098</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.02079862747724981</v>
+        <v>0.05130630084397521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04998231791003747</v>
+        <v>-0.02315956639592107</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04586063168435076</v>
+        <v>-0.4730714496061158</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1416764960546558</v>
+        <v>-0.04312481962964924</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02079179331982104</v>
+        <v>0.0165586462126807</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1375533342364591</v>
+        <v>-0.3955873658930447</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0520297659720874</v>
+        <v>0.1282658780089712</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1248887618044131</v>
+        <v>-0.05790731109236002</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1147202029196846</v>
+        <v>-1.182668511356669</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.3540224641810978</v>
+        <v>-0.1077220364257879</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.05200473268403131</v>
+        <v>0.04141890752826695</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3438456429971636</v>
+        <v>-0.9890485854009492</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.03119796157767603</v>
+        <v>0.07695945131543475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07497349330537872</v>
+        <v>-0.03473934960099284</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06879089560918034</v>
+        <v>-0.7096048724450759</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2125147163164499</v>
+        <v>-0.06467464678131275</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03118769026850075</v>
+        <v>0.02483796931239532</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2063300435673128</v>
+        <v>-0.5933982090573229</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.05202970326083443</v>
+        <v>0.1282658781051518</v>
       </c>
       <c r="I5" t="n">
-        <v>0.124889035249493</v>
+        <v>-0.05790731118447344</v>
       </c>
       <c r="J5" t="n">
-        <v>0.114720167225098</v>
+        <v>-1.182689237592554</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.3540221573779453</v>
+        <v>-0.1077270310256352</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.05200468629714876</v>
+        <v>0.04141890777738576</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3438455747133697</v>
+        <v>-0.9889632222506799</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.04159728332406623</v>
+        <v>0.1026126018060945</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09996472331653977</v>
+        <v>-0.0463191328244923</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09172115265124177</v>
+        <v>-0.9461424445832454</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2833528751012765</v>
+        <v>-0.08622547382938019</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.04158357785994866</v>
+        <v>0.03311729246222896</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2751067393720362</v>
+        <v>-0.791191962902823</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.05202973678360415</v>
+        <v>0.1282658781253863</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1248892660947256</v>
+        <v>-0.05790731073214327</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1147200375658239</v>
+        <v>-1.182690122535147</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3540223413434674</v>
+        <v>-0.1077253540732041</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.05200476186325342</v>
+        <v>0.04141890763019228</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3438458442034832</v>
+        <v>-0.9889624344405058</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.05199661176379671</v>
+        <v>0.1282657523008789</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1249559996851147</v>
+        <v>-0.05789891595741511</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1146513836548181</v>
+        <v>-1.18268019388295</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3541910707607912</v>
+        <v>-0.1077759651591874</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.05197948072527084</v>
+        <v>0.04139661558259569</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3438834892224449</v>
+        <v>-0.9889855590322649</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05202979246491218</v>
+        <v>0.1282658781558701</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1248891197534592</v>
+        <v>-0.05790731057717532</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1147200774342626</v>
+        <v>-1.182672974783048</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.3540225144048807</v>
+        <v>-0.1077223853829583</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.05200470732852346</v>
+        <v>0.04141890757495115</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3438461096502006</v>
+        <v>-0.9889565940552931</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.06239595129331903</v>
+        <v>0.1539189028016911</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1499472467338322</v>
+        <v>-0.0694786990592923</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1375816226837316</v>
+        <v>-1.419214510279698</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4250293011072742</v>
+        <v>-0.1293258621705441</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.06237537256940229</v>
+        <v>0.0496759386919059</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4126602920008295</v>
+        <v>-1.186777985942834</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.05202974754915585</v>
+        <v>0.1282658781769747</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1248887669966273</v>
+        <v>-0.05790731119399741</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1147202155208207</v>
+        <v>-1.182672648199482</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.3540226002695114</v>
+        <v>-0.1077212967153851</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05200467689648904</v>
+        <v>0.04141890753489599</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3438453461815475</v>
+        <v>-0.9889577828100072</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.07279528186017714</v>
+        <v>0.1795720533067002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.174938423060334</v>
+        <v>-0.08105848228466456</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1605118895471939</v>
+        <v>-1.655748761295867</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4958675485777235</v>
+        <v>-0.1508755412355426</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.07277125833346609</v>
+        <v>0.05795526179320077</v>
       </c>
       <c r="G9" t="n">
-        <v>0.481436942042474</v>
+        <v>-1.38457065083676</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.05202973336152042</v>
+        <v>0.1282658781721028</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1248887942900846</v>
+        <v>-0.05790731113954181</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1147205275730707</v>
+        <v>-1.182690782806047</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.3540219494636583</v>
+        <v>-0.1077543397603332</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05200466452451719</v>
+        <v>0.04141890767207734</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3438451334466818</v>
+        <v>-0.9889734787585786</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.08319460964809303</v>
+        <v>0.2052252038107567</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1999296049062053</v>
+        <v>-0.09263826549913587</v>
       </c>
       <c r="D10" t="n">
-        <v>0.183442218810594</v>
+        <v>-1.892286642778746</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5667056657697231</v>
+        <v>-0.172431835369604</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.08316714161749027</v>
+        <v>0.06623458492202841</v>
       </c>
       <c r="G10" t="n">
-        <v>0.550213549451658</v>
+        <v>-1.582366457988996</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.05202966530176003</v>
+        <v>0.1282658782103305</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1248885978692522</v>
+        <v>-0.05790731113302216</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1147205399045167</v>
+        <v>-1.182669982980295</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.3540216378045085</v>
+        <v>-0.1077019970312242</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.05200464556146134</v>
+        <v>0.04141890768391592</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3438446064896931</v>
+        <v>-0.9889734787865696</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.09359392377978892</v>
+        <v>0.2308783543225045</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2249207474244656</v>
+        <v>-0.1042180487123314</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2063725506967536</v>
+        <v>-2.128820360230019</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.6375437206628676</v>
+        <v>-0.1939776507245883</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0935630211619614</v>
+        <v>0.07451390805314498</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6189900514033895</v>
+        <v>-1.780162265146765</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.05202964895049541</v>
+        <v>0.1282658781247792</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1248884472510347</v>
+        <v>-0.05790731100612243</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1147203631106008</v>
+        <v>-1.182668433542396</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.354021468620473</v>
+        <v>-0.1077308802806223</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.05200468250638728</v>
+        <v>0.04141890769847764</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3438447515378053</v>
+        <v>-0.9889734785242035</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1039932344912167</v>
+        <v>0.2565315048172117</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2499118597841033</v>
+        <v>-0.1157978319000932</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2293028469967354</v>
+        <v>-2.365353767490769</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7083817416931368</v>
+        <v>-0.2155292483762355</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.103958908066026</v>
+        <v>0.08279323118720042</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6877665823805472</v>
+        <v>-1.977958072251999</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05202968527260865</v>
+        <v>0.1282658781266155</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1248886304530935</v>
+        <v>-0.05790731152438396</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1147205475227042</v>
+        <v>-1.182667901677096</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.354021462517304</v>
+        <v>-0.1077228233127465</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.05200471007034804</v>
+        <v>0.04141890765359078</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3438447825075194</v>
+        <v>-0.9889734785768464</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1143925526313705</v>
+        <v>0.2821846553121886</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2749030088739502</v>
+        <v>-0.1273776151915941</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2522331802652559</v>
+        <v>-2.601887068274483</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7792197613982339</v>
+        <v>-0.237079233059159</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.11435480047707</v>
+        <v>0.0910725543122384</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7565431195629431</v>
+        <v>-2.175753879367768</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05202970111427975</v>
+        <v>0.1282658781027518</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1248888120322504</v>
+        <v>-0.05790731108120932</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1147203105323309</v>
+        <v>-1.182669109063474</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.354021298617383</v>
+        <v>-0.1077311700118302</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.05200471096098428</v>
+        <v>0.04141890772181329</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3438445265805701</v>
+        <v>-0.9889734789042016</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1247918740066847</v>
+        <v>0.3078378058024259</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2998941942322958</v>
+        <v>-0.1389573983943964</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2751634660511243</v>
+        <v>-2.838420610771561</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.8500577483614749</v>
+        <v>-0.2586308887137481</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1247506930921993</v>
+        <v>0.09935187745089352</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8253196054839663</v>
+        <v>-2.373549686549109</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.05202970484038161</v>
+        <v>0.1282658781388699</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1248891786110767</v>
+        <v>-0.05790731112545222</v>
       </c>
       <c r="J14" t="n">
-        <v>0.114720370232733</v>
+        <v>-1.182672130225455</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.3540215405981599</v>
+        <v>-0.1077218810124129</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.05200474474234543</v>
+        <v>0.0414189076210387</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3438447630296979</v>
+        <v>-0.9889734785456539</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1351911960643914</v>
+        <v>0.3334909562998896</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3248854529692402</v>
+        <v>-0.1505371816060727</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2980937637614431</v>
+        <v>-3.074954758091589</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.9208957837475382</v>
+        <v>-0.2801806847523861</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1351465924591821</v>
+        <v>0.1076312005694216</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8940961387418611</v>
+        <v>-2.571345493658645</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.05202968963310106</v>
+        <v>0.1282658781045316</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1248892164755399</v>
+        <v>-0.0579073112572937</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1147204350080041</v>
+        <v>-1.182670089702538</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.3540217522634238</v>
+        <v>-0.1077326537891936</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.05200471237741284</v>
+        <v>0.04141890761499139</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3438445028640329</v>
+        <v>-0.9889734784087094</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1455905150301433</v>
+        <v>0.359144106790404</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3498767192559449</v>
+        <v>-0.1621169648441386</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3210240744498577</v>
+        <v>-3.31148849690813</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.9917338614794589</v>
+        <v>-0.3017326374524864</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1455424853458986</v>
+        <v>0.1159105236867028</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9628726199390827</v>
+        <v>-2.769141300740801</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.05202962892211457</v>
+        <v>0.1282658780771749</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1248888518734465</v>
+        <v>-0.05790731101943628</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1147203173965779</v>
+        <v>-1.18266903347954</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.3540218638191229</v>
+        <v>-0.1077247978978574</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.05200466228053278</v>
+        <v>0.04141890760689768</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3438447421337485</v>
+        <v>-0.9889734786343516</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1559898218867769</v>
+        <v>0.384797257275476</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3748679125834748</v>
+        <v>-0.1736967480345649</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3439543616245473</v>
+        <v>-3.548022024273572</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.062571961567177</v>
+        <v>-0.3232830174384683</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1559383681682444</v>
+        <v>0.1241898468024313</v>
       </c>
       <c r="G17" t="n">
-        <v>1.031649149066024</v>
+        <v>-2.966937107868132</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0520296538996944</v>
+        <v>0.1282658781007139</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1248891899602904</v>
+        <v>-0.05790731154806535</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1147200586017914</v>
+        <v>-1.182673015813312</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.3540216369631254</v>
+        <v>-0.1077223608536007</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0520046413311278</v>
+        <v>0.04141890758206079</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3438445960964794</v>
+        <v>-0.9889734786696061</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1663891336931836</v>
+        <v>0.4104504077653024</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3998591735882407</v>
+        <v>-0.18527653133084</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3668845970354028</v>
+        <v>-3.784556348884367</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.133410016241523</v>
+        <v>-0.3448329095391484</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.166334246808308</v>
+        <v>0.1324691699131402</v>
       </c>
       <c r="G18" t="n">
-        <v>1.100425648897664</v>
+        <v>-3.164732915002494</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.05202957864172812</v>
+        <v>0.1282658781343841</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1248887527886596</v>
+        <v>-0.057907310937815</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1147199011800484</v>
+        <v>-1.182674152077881</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.3540216464488828</v>
+        <v>-0.1077271349596683</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0520046699521288</v>
+        <v>0.04141890756149007</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3438444768232286</v>
+        <v>-0.9889734785370849</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1767884304433665</v>
+        <v>0.4361035582618714</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4248503470575067</v>
+        <v>-0.1968563145049482</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3898148009048</v>
+        <v>-4.021090900970259</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.204248072811579</v>
+        <v>-0.366383757394378</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1767301311901797</v>
+        <v>0.140748493019741</v>
       </c>
       <c r="G19" t="n">
-        <v>1.169202124885957</v>
+        <v>-3.36252872211032</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.05202958429283716</v>
+        <v>0.1282658780785281</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1248886483385601</v>
+        <v>-0.05790731093096113</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1147194002837232</v>
+        <v>-1.182669350354771</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.3540214961931773</v>
+        <v>-0.1077153494939081</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.05200472157033478</v>
+        <v>0.04141890750018792</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3438443590618062</v>
+        <v>-0.9889734784198767</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.1871877283325332</v>
+        <v>0.4617567087472234</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4498414996389037</v>
+        <v>-0.208436097677715</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4127449044306104</v>
+        <v>-4.257624491772746</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.275086099315742</v>
+        <v>-0.3879322458523526</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1871260259029221</v>
+        <v>0.1490278161140731</v>
       </c>
       <c r="G20" t="n">
-        <v>1.237978577299935</v>
+        <v>-3.560324529194673</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.05202957023297181</v>
+        <v>0.1282658781229276</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1248885038040588</v>
+        <v>-0.0579073108146294</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1147192986214648</v>
+        <v>-1.182673755188749</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.3540213804668509</v>
+        <v>-0.1077307574069138</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.05200475830942031</v>
+        <v>0.04141890758214562</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3438443090264982</v>
+        <v>-0.9889734784641573</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.1975870232958115</v>
+        <v>0.4874098592414405</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4748326233228135</v>
+        <v>-0.2200158808271934</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4356749876832325</v>
+        <v>-4.494158964403281</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.345924102589466</v>
+        <v>-0.409483818905244</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1975219279669933</v>
+        <v>0.1573071392248593</v>
       </c>
       <c r="G21" t="n">
-        <v>1.30675501968388</v>
+        <v>-3.758120336287917</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.05202963826547603</v>
+        <v>0.1282658781227686</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1248883102078289</v>
+        <v>-0.05790731079845161</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1147192447984611</v>
+        <v>-1.1826699900384</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.3540212829222817</v>
+        <v>-0.107732279818644</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.05200476275582914</v>
+        <v>0.04141890758178748</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3438441817981179</v>
+        <v>-0.9889734785436626</v>
       </c>
     </row>
     <row r="22">
@@ -1320,40 +1320,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.2079863320010027</v>
+        <v>0.5130630097356348</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4998237081565343</v>
+        <v>-0.2315956639734733</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4586050601393559</v>
+        <v>-4.730692683267652</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.416762086332683</v>
+        <v>-0.4310356967381382</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2079178308840213</v>
+        <v>0.1655864623355544</v>
       </c>
       <c r="G22" t="n">
-        <v>1.375531436568536</v>
+        <v>-3.955916143397059</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.05202970001475974</v>
+        <v>0.1282658781249718</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1248884924582479</v>
+        <v>-0.05790731097828317</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1147190824546272</v>
+        <v>-1.182669118140654</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.3540213832098817</v>
+        <v>-0.1077262529497903</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.05200475884825147</v>
+        <v>0.04141890756194533</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3438441764375123</v>
+        <v>-0.98897347830722</v>
       </c>
     </row>
     <row r="23">
@@ -1361,40 +1361,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.2183856529939682</v>
+        <v>0.5387161602303205</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5248148295577416</v>
+        <v>-0.2431754471557268</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4815351001745619</v>
+        <v>-4.967226227582007</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.487600090173528</v>
+        <v>-0.4525863680189717</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.2183137330427584</v>
+        <v>0.1738657854422589</v>
       </c>
       <c r="G23" t="n">
-        <v>1.444307852396186</v>
+        <v>-4.153711950458899</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.05202966547652427</v>
+        <v>0.1282658781821179</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1248883424257786</v>
+        <v>-0.05790731058804719</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1147194084909393</v>
+        <v>-1.182675007873999</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.3540214645343081</v>
+        <v>-0.107729659541534</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.05200476625410586</v>
+        <v>0.04141890761714404</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3438441255708154</v>
+        <v>-0.9889734780860343</v>
       </c>
     </row>
     <row r="24">
@@ -1402,40 +1402,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.2287849671919922</v>
+        <v>0.5643693107364192</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5498059209001398</v>
+        <v>-0.2547552302598625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5044652054346692</v>
+        <v>-5.203760950994504</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.558438110279333</v>
+        <v>-0.4741377212841512</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2287096367004779</v>
+        <v>0.1821451085600332</v>
       </c>
       <c r="G24" t="n">
-        <v>1.513084258065722</v>
+        <v>-4.35150775747645</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0520296866029805</v>
+        <v>0.1282658781402383</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1248883185943592</v>
+        <v>-0.05790731085115573</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1147194185136658</v>
+        <v>-1.182664497260001</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.3540214549258596</v>
+        <v>-0.1077436693014245</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0520047480980412</v>
+        <v>0.04141890758760603</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3438441042769731</v>
+        <v>-0.9889734778108249</v>
       </c>
     </row>
     <row r="25">
@@ -1443,40 +1443,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.2391842856315293</v>
+        <v>0.5900224612341554</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5747970074659008</v>
+        <v>-0.2663350134166644</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5273953126070758</v>
+        <v>-5.440293570229285</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.629276128472209</v>
+        <v>-0.4956918792402838</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.2391055367500453</v>
+        <v>0.1904244316718942</v>
       </c>
       <c r="G25" t="n">
-        <v>1.581860659443993</v>
+        <v>-4.549303564438924</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.05202966676133014</v>
+        <v>0.1282658781726423</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1248882618901649</v>
+        <v>-0.05790731103136176</v>
       </c>
       <c r="J25" t="n">
-        <v>0.114719398142717</v>
+        <v>-1.18267287013357</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.354021397089526</v>
+        <v>-0.1077386186668389</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.05200473584124789</v>
+        <v>0.04141890762607483</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3438441255561234</v>
+        <v>-0.9889734779899043</v>
       </c>
     </row>
     <row r="26">
@@ -1484,40 +1484,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.2495836000062852</v>
+        <v>0.6156756117383604</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5997880826700979</v>
+        <v>-0.277914796609539</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5503254157447082</v>
+        <v>-5.676827865675717</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.700114135121665</v>
+        <v>-0.5172450260820478</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.2495014343017044</v>
+        <v>0.1987037547914438</v>
       </c>
       <c r="G26" t="n">
-        <v>1.650637065102856</v>
+        <v>-4.74709937143724</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.05202970077925764</v>
+        <v>-0.1053576945330429</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1248883579506913</v>
+        <v>-0.03660280304330991</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1147193985773032</v>
+        <v>0.1349776895217665</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.354021486005709</v>
+        <v>-1.403483945899875</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0520047190654632</v>
+        <v>0.019890963546618</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3438442478856478</v>
+        <v>1.521728011771952</v>
       </c>
     </row>
     <row r="27">
@@ -1525,40 +1525,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.2599829213315516</v>
+        <v>0.594604101881669</v>
       </c>
       <c r="C27" t="n">
-        <v>0.624779177098737</v>
+        <v>-0.2852206060470571</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5732555191103224</v>
+        <v>-5.649797704456737</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.770952159620218</v>
+        <v>-0.7979158001445444</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.2598973284973941</v>
+        <v>0.2026804562965848</v>
       </c>
       <c r="G27" t="n">
-        <v>1.719413495262459</v>
+        <v>-4.442750432882876</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.05202976842671708</v>
+        <v>-0.1053586030166989</v>
       </c>
       <c r="I27" t="n">
-        <v>0.124888518276669</v>
+        <v>-0.03660289197609914</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1147188216943843</v>
+        <v>0.1349773495354713</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.3540214353162534</v>
+        <v>-1.403544370324348</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.05200469050595297</v>
+        <v>0.01989095763221284</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3438441534656483</v>
+        <v>1.521712197392417</v>
       </c>
     </row>
     <row r="28">
@@ -1566,40 +1566,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.2703822560418551</v>
+        <v>0.5735324101506906</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6497703036292485</v>
+        <v>-0.2925264332882516</v>
       </c>
       <c r="D28" t="n">
-        <v>0.596185506889445</v>
+        <v>-5.622767611300917</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.841790173918979</v>
+        <v>-1.078598670904715</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.2702932169982581</v>
+        <v>0.206657156617697</v>
       </c>
       <c r="G28" t="n">
-        <v>1.788189906513016</v>
+        <v>-4.138404660296239</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.05202968446782379</v>
+        <v>-0.1053743500543521</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1248884857382871</v>
+        <v>-0.03660285438318833</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1147194193109746</v>
+        <v>0.1349774024250841</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.354021553732963</v>
+        <v>-1.403542015237918</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.05200470534596516</v>
+        <v>0.01989096104792821</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3438443097458751</v>
+        <v>1.521732600280581</v>
       </c>
     </row>
     <row r="29">
@@ -1607,40 +1607,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.280781573961346</v>
+        <v>0.5524575659334506</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6747614236246129</v>
+        <v>-0.2998322530035081</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6191156143765368</v>
+        <v>-5.595737507556931</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.912628211905254</v>
+        <v>-1.359281070187258</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.2806891084556306</v>
+        <v>0.2106338576226754</v>
       </c>
       <c r="G29" t="n">
-        <v>1.856966349013747</v>
+        <v>-3.834054803143132</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.05202970325376174</v>
+        <v>-0.1053596637459487</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1248885871795399</v>
+        <v>-0.03660285454354916</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1147194309380568</v>
+        <v>0.1349774888351449</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.3540217165120388</v>
+        <v>-1.403463459678102</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.05200471998689473</v>
+        <v>0.01989096048668169</v>
       </c>
       <c r="M29" t="n">
-        <v>0.3438444628904992</v>
+        <v>1.521733327285469</v>
       </c>
     </row>
     <row r="30">
@@ -1648,40 +1648,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.2911808956926958</v>
+        <v>0.5313856618492291</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6997525639013922</v>
+        <v>-0.3071380727509088</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6420457241025772</v>
+        <v>-5.568707386514024</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.98346628247274</v>
+        <v>-1.639947742999967</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2910850028229799</v>
+        <v>0.2146105585152678</v>
       </c>
       <c r="G30" t="n">
-        <v>1.925742822207937</v>
+        <v>-3.529704800446916</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.05202969523984474</v>
+        <v>-0.1053593884845307</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1248886910854067</v>
+        <v>-0.03660287738980016</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1147193579486131</v>
+        <v>0.1349773640279548</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.3540216491977436</v>
+        <v>-1.403528166407062</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.05200472699372065</v>
+        <v>0.01989095976684042</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3438446004883123</v>
+        <v>1.521733479546965</v>
       </c>
     </row>
     <row r="31">
@@ -1689,40 +1689,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.3015802157544059</v>
+        <v>0.5103138128710831</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7247437250332289</v>
+        <v>-0.3144438970720012</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6649758191967678</v>
+        <v>-5.541677290456958</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.05430433957507</v>
+        <v>-1.920627369808906</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.3014808985996112</v>
+        <v>0.2185872592636969</v>
       </c>
       <c r="G31" t="n">
-        <v>1.994519322935159</v>
+        <v>-3.225354767268664</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.05202972389373394</v>
+        <v>-0.1053604292470076</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1248889095733599</v>
+        <v>-0.03660287023791401</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1147194013901244</v>
+        <v>0.1349773465394495</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.35402139227195</v>
+        <v>-1.403540185206885</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.05200473312716865</v>
+        <v>0.01989096035534125</v>
       </c>
       <c r="M31" t="n">
-        <v>0.3438447692257284</v>
+        <v>1.521732289776277</v>
       </c>
     </row>
     <row r="32">
@@ -1730,40 +1730,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.3119795417380938</v>
+        <v>0.4892417555369016</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7497349298722327</v>
+        <v>-0.3217497199613322</v>
       </c>
       <c r="D32" t="n">
-        <v>0.687905922987919</v>
+        <v>-5.514647197900953</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.125142345257089</v>
+        <v>-2.201309402727463</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.3118767956092008</v>
+        <v>0.2225639601299882</v>
       </c>
       <c r="G32" t="n">
-        <v>2.063295857442327</v>
+        <v>-2.921004972277119</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.05202977276056397</v>
+        <v>-0.1053599846869017</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1248891267349811</v>
+        <v>-0.03660288980585766</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1147194188531723</v>
+        <v>0.1349773820825496</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.3540219772752978</v>
+        <v>-1.403527855839606</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.05200474299860397</v>
+        <v>0.01989095985224014</v>
       </c>
       <c r="M32" t="n">
-        <v>0.3438448871736405</v>
+        <v>1.521732712549102</v>
       </c>
     </row>
     <row r="33">
@@ -1771,40 +1771,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.3223788773327008</v>
+        <v>0.4681697872017356</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7747261781876063</v>
+        <v>-0.3290555467680981</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7108360302940568</v>
+        <v>-5.487617098229393</v>
       </c>
       <c r="E33" t="n">
-        <v>-2.195980468097969</v>
+        <v>-2.48198896736218</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.3222726945918808</v>
+        <v>0.226540660895536</v>
       </c>
       <c r="G33" t="n">
-        <v>2.132072415565162</v>
+        <v>-2.616655092648248</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.05202973376464108</v>
+        <v>-0.105359599512153</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1248890158227803</v>
+        <v>-0.03660285693340583</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1147195895693831</v>
+        <v>0.1349773890285798</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.3540219515047152</v>
+        <v>-1.403545736819284</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.05200471344385638</v>
+        <v>0.01989096064748467</v>
       </c>
       <c r="M33" t="n">
-        <v>0.3438448177517489</v>
+        <v>1.521732509443927</v>
       </c>
     </row>
     <row r="34">
@@ -1812,40 +1812,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.3327782050803428</v>
+        <v>0.4470978959767673</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7997174043055721</v>
+        <v>-0.3363613669939386</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7337661718372659</v>
+        <v>-5.460586997167265</v>
       </c>
       <c r="E34" t="n">
-        <v>-2.266818585797742</v>
+        <v>-2.762672111688684</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.3326685876734289</v>
+        <v>0.2305173618203285</v>
       </c>
       <c r="G34" t="n">
-        <v>2.200848959790338</v>
+        <v>-2.312305253680233</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.05202970264645174</v>
+        <v>-0.1053596820164318</v>
       </c>
       <c r="I34" t="n">
-        <v>0.124889160731366</v>
+        <v>-0.03660285793184642</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1147195539227759</v>
+        <v>0.1349774421065597</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.3540218596053771</v>
+        <v>-1.40354677423188</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.05200468853034008</v>
+        <v>0.0198909595217311</v>
       </c>
       <c r="M34" t="n">
-        <v>0.3438447659909321</v>
+        <v>1.521732867717361</v>
       </c>
     </row>
     <row r="35">
@@ -1853,40 +1853,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.3431775266641928</v>
+        <v>0.4260259882348295</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8247086594570134</v>
+        <v>-0.3436671874196284</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7566963061837818</v>
+        <v>-5.433556885479195</v>
       </c>
       <c r="E35" t="n">
-        <v>-2.337656685034554</v>
+        <v>-3.043355463700493</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3430644757681741</v>
+        <v>0.234494062519726</v>
       </c>
       <c r="G35" t="n">
-        <v>2.269625493663423</v>
+        <v>-2.007955342987486</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.05202970224468742</v>
+        <v>-0.105360722096765</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1248891521767762</v>
+        <v>-0.03660285523876546</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1147194225152232</v>
+        <v>0.1349774122965269</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.3540217321302662</v>
+        <v>-1.403552677907791</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.05200467249419744</v>
+        <v>0.01989095928468811</v>
       </c>
       <c r="M35" t="n">
-        <v>0.3438447060141594</v>
+        <v>1.521733326450427</v>
       </c>
     </row>
     <row r="36">
@@ -1894,40 +1894,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.3535768481548075</v>
+        <v>0.404953872273486</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8496999129037462</v>
+        <v>-0.3509730073061931</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7796264142602048</v>
+        <v>-5.406526779758932</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.408494758688798</v>
+        <v>-3.324039997601648</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.353460360674945</v>
+        <v>0.2384707631716713</v>
       </c>
       <c r="G36" t="n">
-        <v>2.338402015544605</v>
+        <v>-1.703605340458443</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.05202967416306786</v>
+        <v>-0.1053612557734422</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1248891684521671</v>
+        <v>-0.03660288500490527</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1147194509650241</v>
+        <v>0.1349774453846194</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.3540218203800259</v>
+        <v>-1.403542743700032</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.052004656638313</v>
+        <v>0.01989096002249881</v>
       </c>
       <c r="M36" t="n">
-        <v>0.3438446948000866</v>
+        <v>1.521733670927815</v>
       </c>
     </row>
     <row r="37">
@@ -1935,40 +1935,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.3639761640463905</v>
+        <v>0.3838816494724993</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8746911695795504</v>
+        <v>-0.3582788331518099</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8025565280185938</v>
+        <v>-5.379496667414588</v>
       </c>
       <c r="E37" t="n">
-        <v>-2.479332850076385</v>
+        <v>-3.604722542719069</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3638562423664596</v>
+        <v>0.2424474639713107</v>
       </c>
       <c r="G37" t="n">
-        <v>2.40717853516043</v>
+        <v>-1.399255268966571</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.05202971167508689</v>
+        <v>-0.1053612735631359</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1248893223529311</v>
+        <v>-0.0366028613742891</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1147195727759811</v>
+        <v>0.134977373745996</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.3540216897145942</v>
+        <v>-1.403547703086296</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.05200467491391295</v>
+        <v>0.01989096088853523</v>
       </c>
       <c r="M37" t="n">
-        <v>0.3438444892968005</v>
+        <v>1.521733100210878</v>
       </c>
     </row>
     <row r="38">
@@ -1976,40 +1976,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.3743754874076071</v>
+        <v>0.3628094231100805</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8996824571176674</v>
+        <v>-0.3655846542666908</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8254866661466018</v>
+        <v>-5.352466569411996</v>
       </c>
       <c r="E38" t="n">
-        <v>-2.550170915290302</v>
+        <v>-3.88540608068334</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3742521276950026</v>
+        <v>0.2464241649443312</v>
       </c>
       <c r="G38" t="n">
-        <v>2.475955013632643</v>
+        <v>-1.094905311729667</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.05202966555807825</v>
+        <v>-0.105360087020372</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1248893243217257</v>
+        <v>-0.0366028669322782</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1147195172721928</v>
+        <v>0.1349773853052662</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.3540215980200681</v>
+        <v>-1.403538237343545</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.05200467240427502</v>
+        <v>0.01989095999621628</v>
       </c>
       <c r="M38" t="n">
-        <v>0.3438443826894177</v>
+        <v>1.521732713120604</v>
       </c>
     </row>
     <row r="39">
@@ -2017,40 +2017,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.3847748015462979</v>
+        <v>0.3417374342881777</v>
       </c>
       <c r="C39" t="n">
-        <v>0.924673745005574</v>
+        <v>-0.3728904764942385</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8484167931507933</v>
+        <v>-5.325436469095305</v>
       </c>
       <c r="E39" t="n">
-        <v>-2.621008962139205</v>
+        <v>-4.166087723648474</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.3846480125551086</v>
+        <v>0.2504008657387369</v>
       </c>
       <c r="G39" t="n">
-        <v>2.544731470758022</v>
+        <v>-0.7905554319864958</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.0520296602659736</v>
+        <v>-0.1053604561063659</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1248892904454876</v>
+        <v>-0.03660286600472518</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1147194139282896</v>
+        <v>0.1349774352453978</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.3540216822838511</v>
+        <v>-1.403537341579028</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.05200469627312708</v>
+        <v>0.01989095999798078</v>
       </c>
       <c r="M39" t="n">
-        <v>0.343844421759828</v>
+        <v>1.521732999965961</v>
       </c>
     </row>
     <row r="40">
@@ -2058,40 +2058,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.395174114693491</v>
+        <v>0.3206653715769642</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9496650261092192</v>
+        <v>-0.3801962985360824</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8713468994746514</v>
+        <v>-5.298406358780819</v>
       </c>
       <c r="E40" t="n">
-        <v>-2.691847025909125</v>
+        <v>-4.446769187285559</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.3950439021855491</v>
+        <v>0.2543775665334952</v>
       </c>
       <c r="G40" t="n">
-        <v>2.613507935706056</v>
+        <v>-0.486205494818184</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.0520296788583174</v>
+        <v>-0.105361476864366</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1248893405211777</v>
+        <v>-0.03660287499741662</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1147192431712481</v>
+        <v>0.1349773755104499</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.3540218388886592</v>
+        <v>-1.40353709463965</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.05200469614653514</v>
+        <v>0.01989096030273622</v>
       </c>
       <c r="M40" t="n">
-        <v>0.3438445211793855</v>
+        <v>1.521735206393364</v>
       </c>
     </row>
     <row r="41">
@@ -2099,40 +2099,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.4055734314347503</v>
+        <v>0.2995931045145817</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9746563172442826</v>
+        <v>-0.3875021223782227</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8942769716474622</v>
+        <v>-5.271376260425009</v>
       </c>
       <c r="E41" t="n">
-        <v>-2.762685120996748</v>
+        <v>-4.72745060148645</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4054397917598205</v>
+        <v>0.2583542673892271</v>
       </c>
       <c r="G41" t="n">
-        <v>2.682284420557184</v>
+        <v>-0.1818551159330069</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.0520296713408546</v>
+        <v>-0.1053622327550382</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1248893433485292</v>
+        <v>-0.03660286881982436</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1147193531216811</v>
+        <v>0.1349773798952113</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.3540220290039446</v>
+        <v>-1.403541203413891</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.05200470921654712</v>
+        <v>0.01989096023175412</v>
       </c>
       <c r="M41" t="n">
-        <v>0.3438445190570736</v>
+        <v>1.521735507459827</v>
       </c>
     </row>
     <row r="42">
@@ -2140,40 +2140,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.4159727468902509</v>
+        <v>0.2785206861262707</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9996476089730884</v>
+        <v>-0.3948079449836291</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9172070658275395</v>
+        <v>-5.244346161191373</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.833523254120441</v>
+        <v>-5.008132838245515</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4158356839935639</v>
+        <v>0.2623309682307817</v>
       </c>
       <c r="G42" t="n">
-        <v>2.751060904999608</v>
+        <v>0.122495323224346</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.0520297459940743</v>
+        <v>-0.1053599242828445</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1248894611812395</v>
+        <v>-0.03660287892982502</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1147193488422204</v>
+        <v>0.1349774088283307</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.354021894377922</v>
+        <v>-1.403545267389791</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0520047089450602</v>
+        <v>0.01989096014895366</v>
       </c>
       <c r="M42" t="n">
-        <v>0.3438445665022663</v>
+        <v>1.521733586474902</v>
       </c>
     </row>
     <row r="43">
@@ -2181,40 +2181,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.4263720772505937</v>
+        <v>0.2574487298836823</v>
       </c>
       <c r="C43" t="n">
-        <v>1.024638924312403</v>
+        <v>-0.4021137696130041</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9401371591109182</v>
+        <v>-5.217316056165464</v>
       </c>
       <c r="E43" t="n">
-        <v>-2.904361360326561</v>
+        <v>-5.288815888594267</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.4262315761476497</v>
+        <v>0.2663076690557737</v>
       </c>
       <c r="G43" t="n">
-        <v>2.819837398943317</v>
+        <v>0.426845377809167</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.05202969385250313</v>
+        <v>-0.1053602585876569</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1248892942293066</v>
+        <v>-0.03660287528918889</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1147195091834582</v>
+        <v>0.1349774124558065</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.3540218720269113</v>
+        <v>-1.403543589354546</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.05200472166553243</v>
+        <v>0.01989095971705389</v>
       </c>
       <c r="M43" t="n">
-        <v>0.3438446240651981</v>
+        <v>1.521733514570301</v>
       </c>
     </row>
     <row r="44">
@@ -2222,40 +2222,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.4367713970302908</v>
+        <v>0.2363767067147541</v>
       </c>
       <c r="C44" t="n">
-        <v>1.049630206207674</v>
+        <v>-0.4094195935135247</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9630672845072035</v>
+        <v>-5.190285950413328</v>
       </c>
       <c r="E44" t="n">
-        <v>-2.975199462029662</v>
+        <v>-5.5694986030079</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.4366274708762038</v>
+        <v>0.2702843697943029</v>
       </c>
       <c r="G44" t="n">
-        <v>2.888613904400827</v>
+        <v>0.7311954179990117</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.05202969522278276</v>
+        <v>-0.1053603644722988</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1248891258732539</v>
+        <v>-0.03660285984626738</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1147195962906789</v>
+        <v>0.1349774224389641</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.3540219394641635</v>
+        <v>-1.403531179714544</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.05200469480806445</v>
+        <v>0.01989096017301498</v>
       </c>
       <c r="M44" t="n">
-        <v>0.3438445592796862</v>
+        <v>1.521761471068264</v>
       </c>
     </row>
     <row r="45">
@@ -2263,40 +2263,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.4471707170777015</v>
+        <v>0.2153046623482365</v>
       </c>
       <c r="C45" t="n">
-        <v>1.074621454415283</v>
+        <v>-0.4167254143224443</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9859974273465554</v>
+        <v>-5.163255842662617</v>
       </c>
       <c r="E45" t="n">
-        <v>-3.04603757723504</v>
+        <v>-5.850178833067417</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.4470233602013697</v>
+        <v>0.2742610706240924</v>
       </c>
       <c r="G45" t="n">
-        <v>2.957390396903414</v>
+        <v>1.03555105495406</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.05202966583381151</v>
+        <v>-0.1053603071168266</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1248889900594965</v>
+        <v>-0.03660286617283564</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1147194316838316</v>
+        <v>0.1349773952303591</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.3540219078381128</v>
+        <v>-1.403712134217644</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.05200469468487803</v>
+        <v>0.01989096015908272</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3438445593205618</v>
+        <v>1.521735320918142</v>
       </c>
     </row>
     <row r="46">
@@ -2304,40 +2304,40 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.4575700314095975</v>
+        <v>0.194232629464029</v>
       </c>
       <c r="C46" t="n">
-        <v>1.099612675397622</v>
+        <v>-0.4240312363978828</v>
       </c>
       <c r="D46" t="n">
-        <v>1.008927537256653</v>
+        <v>-5.136225740358936</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.116875686199856</v>
+        <v>-6.130895289404776</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.4574192495264288</v>
+        <v>0.2782377714510963</v>
       </c>
       <c r="G46" t="n">
-        <v>3.026166889411356</v>
+        <v>1.339901456766648</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.0520296656005587</v>
+        <v>-0.1053507688843083</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1248889900871395</v>
+        <v>-0.03660286295994269</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1147194315302373</v>
+        <v>0.1349774051335164</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.3540219079543738</v>
+        <v>-1.40355649447434</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.05200469484819126</v>
+        <v>0.01989096013921889</v>
       </c>
       <c r="M46" t="n">
-        <v>0.343844559325283</v>
+        <v>1.521736111397828</v>
       </c>
     </row>
     <row r="47">
@@ -2345,40 +2345,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.4679693456803924</v>
+        <v>0.1731625060910764</v>
       </c>
       <c r="C47" t="n">
-        <v>1.124603896385045</v>
+        <v>-0.4313370578301159</v>
       </c>
       <c r="D47" t="n">
-        <v>1.031857647165306</v>
+        <v>-5.109195636072704</v>
       </c>
       <c r="E47" t="n">
-        <v>-3.187713795167178</v>
+        <v>-6.411580587365364</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.4678151388731405</v>
+        <v>0.2822144722741253</v>
       </c>
       <c r="G47" t="n">
-        <v>3.09494338192233</v>
+        <v>1.644252016829714</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.05202970950932186</v>
+        <v>-0.1053594563035841</v>
       </c>
       <c r="I47" t="n">
-        <v>0.12488905008359</v>
+        <v>-0.03660286226596626</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1147193952353252</v>
+        <v>0.1349773966248216</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.3540218925289139</v>
+        <v>-1.403542201718857</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.05200469468571443</v>
+        <v>0.01989096014761519</v>
       </c>
       <c r="M47" t="n">
-        <v>0.3438445592907166</v>
+        <v>1.521734897365353</v>
       </c>
     </row>
     <row r="48">
@@ -2386,40 +2386,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.4783686687451826</v>
+        <v>0.152090643535853</v>
       </c>
       <c r="C48" t="n">
-        <v>1.149595129380553</v>
+        <v>-0.4386428791234144</v>
       </c>
       <c r="D48" t="n">
-        <v>1.054787749796533</v>
+        <v>-5.082165533489872</v>
       </c>
       <c r="E48" t="n">
-        <v>-3.258551900973822</v>
+        <v>-6.692263023980589</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.4782110281953085</v>
+        <v>0.286191173098832</v>
       </c>
       <c r="G48" t="n">
-        <v>3.163719874422693</v>
+        <v>1.948602333848939</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.05202966563249593</v>
+        <v>-0.1053587689440148</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1248885351258334</v>
+        <v>-0.03660285809595807</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1147194316701906</v>
+        <v>0.1349773961677034</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.3540219079563761</v>
+        <v>-1.403538849962765</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.05200469467216332</v>
+        <v>0.01989096008147332</v>
       </c>
       <c r="M48" t="n">
-        <v>0.3438445593052296</v>
+        <v>1.52173431199617</v>
       </c>
     </row>
     <row r="49">
@@ -2427,40 +2427,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.488767983024627</v>
+        <v>0.1310189185869224</v>
       </c>
       <c r="C49" t="n">
-        <v>1.174586259257908</v>
+        <v>-0.4459486995818774</v>
       </c>
       <c r="D49" t="n">
-        <v>1.077717859720459</v>
+        <v>-5.055135430998545</v>
       </c>
       <c r="E49" t="n">
-        <v>-3.329390009942929</v>
+        <v>-6.972944789589313</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.4886069175182154</v>
+        <v>0.2901678739102975</v>
       </c>
       <c r="G49" t="n">
-        <v>3.232496366924052</v>
+        <v>2.252952533679876</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.05202966564562994</v>
+        <v>-0.1053847153281244</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1248889900951294</v>
+        <v>-0.03660287066263326</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1147194317384906</v>
+        <v>0.1349774121770657</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.3540219078457614</v>
+        <v>-1.403514345061405</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0520046946815718</v>
+        <v>0.01989096009612806</v>
       </c>
       <c r="M49" t="n">
-        <v>0.343844559394045</v>
+        <v>1.521733988789203</v>
       </c>
     </row>
     <row r="50">
@@ -2468,40 +2468,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.4991672973042234</v>
+        <v>0.1099419992885555</v>
       </c>
       <c r="C50" t="n">
-        <v>1.199577480245709</v>
+        <v>-0.4532545225561563</v>
       </c>
       <c r="D50" t="n">
-        <v>1.100647969635653</v>
+        <v>-5.028105325302226</v>
       </c>
       <c r="E50" t="n">
-        <v>-3.400228118912065</v>
+        <v>-7.253621649426963</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.4990028068465083</v>
+        <v>0.2941445747247011</v>
       </c>
       <c r="G50" t="n">
-        <v>3.30127285942848</v>
+        <v>2.557302668806237</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.05202966550581152</v>
+        <v>-0.1053179522508527</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1248889900604104</v>
+        <v>-0.03660287061582239</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1147193953186504</v>
+        <v>0.1349773884455373</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.3540218925367131</v>
+        <v>-1.403539876532263</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.05200469474245578</v>
+        <v>0.0198909602665225</v>
       </c>
       <c r="M50" t="n">
-        <v>0.3438445593428042</v>
+        <v>1.521733711901831</v>
       </c>
     </row>
     <row r="51">
@@ -2509,40 +2509,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.5095666115630393</v>
+        <v>0.08887844565805865</v>
       </c>
       <c r="C51" t="n">
-        <v>1.224568701229497</v>
+        <v>-0.4605603455210612</v>
       </c>
       <c r="D51" t="n">
-        <v>1.123578072270518</v>
+        <v>-5.001075224356848</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.471066224720889</v>
+        <v>-7.534303620550284</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.509398696172489</v>
+        <v>0.2981212755732077</v>
       </c>
       <c r="G51" t="n">
-        <v>3.370049351934862</v>
+        <v>2.861652748500987</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.03275747296505766</v>
+        <v>-0.009489792346251212</v>
       </c>
       <c r="I51" t="n">
-        <v>0.07886213837467813</v>
+        <v>-0.1452355967165367</v>
       </c>
       <c r="J51" t="n">
-        <v>0.07252958763055264</v>
+        <v>-0.200509955458925</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.2230972776283835</v>
+        <v>-0.2416318541963136</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.03269076738479271</v>
+        <v>0.02856858555622319</v>
       </c>
       <c r="M51" t="n">
-        <v>0.2168370235671091</v>
+        <v>0.1954448316540895</v>
       </c>
     </row>
     <row r="52">
@@ -2550,40 +2550,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.5161275455346441</v>
+        <v>0.08698048057056737</v>
       </c>
       <c r="C52" t="n">
-        <v>1.24032797063479</v>
+        <v>-0.489584578201444</v>
       </c>
       <c r="D52" t="n">
-        <v>1.138036971064403</v>
+        <v>-5.041134797883178</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.515734836474016</v>
+        <v>-7.582611010418502</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.5159507599106614</v>
+        <v>0.3038322556743431</v>
       </c>
       <c r="G52" t="n">
-        <v>3.413423873654486</v>
+        <v>2.900741160545202</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.03275752968637972</v>
+        <v>-0.009489797636794342</v>
       </c>
       <c r="I52" t="n">
-        <v>0.07886218872392348</v>
+        <v>-0.1452355774359646</v>
       </c>
       <c r="J52" t="n">
-        <v>0.07252923575285326</v>
+        <v>-0.2005099620700196</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.2230972765343143</v>
+        <v>-0.2416294877434437</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.03269077020854638</v>
+        <v>0.02856858613798249</v>
       </c>
       <c r="M52" t="n">
-        <v>0.2168370183059096</v>
+        <v>0.1954452639763217</v>
       </c>
     </row>
     <row r="53">
@@ -2591,40 +2591,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.52268848200695</v>
+        <v>0.08508251442393945</v>
       </c>
       <c r="C53" t="n">
-        <v>1.256087247836045</v>
+        <v>-0.5186088070157782</v>
       </c>
       <c r="D53" t="n">
-        <v>1.152495798074423</v>
+        <v>-5.081194370868116</v>
       </c>
       <c r="E53" t="n">
-        <v>-3.560403447425878</v>
+        <v>-7.630917926529419</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.5225028240488296</v>
+        <v>0.3095432358923288</v>
       </c>
       <c r="G53" t="n">
-        <v>3.456798394240517</v>
+        <v>2.93982965913841</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.03275751367789016</v>
+        <v>-0.009489796060748091</v>
       </c>
       <c r="I53" t="n">
-        <v>0.07886215952995329</v>
+        <v>-0.1452355646175337</v>
       </c>
       <c r="J53" t="n">
-        <v>0.07252959247767836</v>
+        <v>-0.2005099611694904</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.2230972611910096</v>
+        <v>-0.2416294340926235</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.032690769287683</v>
+        <v>0.02856858791406556</v>
       </c>
       <c r="M53" t="n">
-        <v>0.216837014255475</v>
+        <v>0.1954448311936029</v>
       </c>
     </row>
     <row r="54">
@@ -2632,40 +2632,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.529249415117991</v>
+        <v>0.08318454859270377</v>
       </c>
       <c r="C54" t="n">
-        <v>1.271846518949495</v>
+        <v>-0.5476330332662351</v>
       </c>
       <c r="D54" t="n">
-        <v>1.166954695769675</v>
+        <v>-5.121253943568329</v>
       </c>
       <c r="E54" t="n">
-        <v>-3.605072055650984</v>
+        <v>-7.679224831901551</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.5290548880452984</v>
+        <v>0.3152542164658441</v>
       </c>
       <c r="G54" t="n">
-        <v>3.500172913937494</v>
+        <v>2.97891807109037</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.03275751440789618</v>
+        <v>-0.009489795930588617</v>
       </c>
       <c r="I54" t="n">
-        <v>0.07886216110222746</v>
+        <v>-0.1452355778628972</v>
       </c>
       <c r="J54" t="n">
-        <v>0.07252961536915799</v>
+        <v>-0.2005099617652961</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.2230972712890736</v>
+        <v>-0.2416291001214669</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.03269076938113358</v>
+        <v>0.02856858753760823</v>
       </c>
       <c r="M54" t="n">
-        <v>0.216837015004387</v>
+        <v>0.1954448963816492</v>
       </c>
     </row>
     <row r="55">
@@ -2673,40 +2673,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.5358103484450367</v>
+        <v>0.08128658278760233</v>
       </c>
       <c r="C55" t="n">
-        <v>1.287605790209067</v>
+        <v>-0.5766572621681824</v>
       </c>
       <c r="D55" t="n">
-        <v>1.181413598038938</v>
+        <v>-5.161313516230751</v>
       </c>
       <c r="E55" t="n">
-        <v>-3.649740666024238</v>
+        <v>-7.727531670411457</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.5356069520772375</v>
+        <v>0.3209651969638785</v>
       </c>
       <c r="G55" t="n">
-        <v>3.543547433862344</v>
+        <v>3.01800649609269</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.03275751382089056</v>
+        <v>-0.009489796521629127</v>
       </c>
       <c r="I55" t="n">
-        <v>0.07886216181979584</v>
+        <v>-0.1452355704135877</v>
       </c>
       <c r="J55" t="n">
-        <v>0.07252961340190905</v>
+        <v>-0.2005099559972119</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.2230972720456677</v>
+        <v>-0.2416292967920281</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.03269076967308138</v>
+        <v>0.02856858691948288</v>
       </c>
       <c r="M55" t="n">
-        <v>0.2168370150220085</v>
+        <v>0.1954448479998814</v>
       </c>
     </row>
     <row r="56">
@@ -2714,40 +2714,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.5423712817217421</v>
+        <v>0.07938861686413975</v>
       </c>
       <c r="C56" t="n">
-        <v>1.303365061469434</v>
+        <v>-0.6056814895793692</v>
       </c>
       <c r="D56" t="n">
-        <v>1.195872500184381</v>
+        <v>-5.201373088505138</v>
       </c>
       <c r="E56" t="n">
-        <v>-3.694409276392727</v>
+        <v>-7.775838548296289</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.5421590161654745</v>
+        <v>0.3266761773382411</v>
       </c>
       <c r="G56" t="n">
-        <v>3.586921953789787</v>
+        <v>3.057094911409125</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.03275751291462151</v>
+        <v>-0.009489795804070113</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0788621617935626</v>
+        <v>-0.1452355646785172</v>
       </c>
       <c r="J56" t="n">
-        <v>0.07252958989737451</v>
+        <v>-0.2005099700220178</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.2230971180049707</v>
+        <v>-0.2416296129628747</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.03269076896322076</v>
+        <v>0.0285685872572122</v>
       </c>
       <c r="M56" t="n">
-        <v>0.2168370150922101</v>
+        <v>0.1954448358439777</v>
       </c>
     </row>
     <row r="57">
@@ -2755,40 +2755,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.5489322149477885</v>
+        <v>0.0774906510843366</v>
       </c>
       <c r="C57" t="n">
-        <v>1.319124332753141</v>
+        <v>-0.6347057158418611</v>
       </c>
       <c r="D57" t="n">
-        <v>1.210331397466776</v>
+        <v>-5.241432661252444</v>
       </c>
       <c r="E57" t="n">
-        <v>-3.739077855998991</v>
+        <v>-7.824145489476859</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.5487110801702197</v>
+        <v>0.3323871577802074</v>
       </c>
       <c r="G57" t="n">
-        <v>3.63029647373044</v>
+        <v>3.096183324292099</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.03275752799756203</v>
+        <v>-0.009489796677314075</v>
       </c>
       <c r="I57" t="n">
-        <v>0.07886219140168314</v>
+        <v>-0.1452355680801561</v>
       </c>
       <c r="J57" t="n">
-        <v>0.07252961433282207</v>
+        <v>-0.2005099615009978</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.223097272003899</v>
+        <v>-0.2416297729981074</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.03269076882543231</v>
+        <v>0.02856858731593133</v>
       </c>
       <c r="M57" t="n">
-        <v>0.2168370151802606</v>
+        <v>0.1954448086727817</v>
       </c>
     </row>
     <row r="58">
@@ -2796,40 +2796,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.5554931510820807</v>
+        <v>0.07559268512971926</v>
       </c>
       <c r="C58" t="n">
-        <v>1.334883610111989</v>
+        <v>-0.6637299427858224</v>
       </c>
       <c r="D58" t="n">
-        <v>1.22479029966459</v>
+        <v>-5.281492233787628</v>
       </c>
       <c r="E58" t="n">
-        <v>-3.783746466385739</v>
+        <v>-7.872452462696028</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.5552631441349473</v>
+        <v>0.3380981382338867</v>
       </c>
       <c r="G58" t="n">
-        <v>3.673670993688214</v>
+        <v>3.13527173173542</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.03275751294933869</v>
+        <v>-0.009489796073779012</v>
       </c>
       <c r="I58" t="n">
-        <v>0.07886216142466299</v>
+        <v>-0.1452355680410341</v>
       </c>
       <c r="J58" t="n">
-        <v>0.07252961451422092</v>
+        <v>-0.20050995922943</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.2230972718646693</v>
+        <v>-0.241629526691507</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.03269076907463386</v>
+        <v>0.02856858751183584</v>
       </c>
       <c r="M58" t="n">
-        <v>0.2168370145291192</v>
+        <v>0.1954449578689583</v>
       </c>
     </row>
     <row r="59">
@@ -2837,40 +2837,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.562054084320178</v>
+        <v>0.07369471929591559</v>
       </c>
       <c r="C59" t="n">
-        <v>1.350642881366376</v>
+        <v>-0.6927541697209405</v>
       </c>
       <c r="D59" t="n">
-        <v>1.239249201894426</v>
+        <v>-5.321551806347424</v>
       </c>
       <c r="E59" t="n">
-        <v>-3.828415076700432</v>
+        <v>-7.920759386605624</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.5618152081799832</v>
+        <v>0.3438091187268302</v>
       </c>
       <c r="G59" t="n">
-        <v>3.717045513517613</v>
+        <v>3.174360169047219</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.03275751325803589</v>
+        <v>-0.00948979629818498</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0788621613803351</v>
+        <v>-0.1452355722332982</v>
       </c>
       <c r="J59" t="n">
-        <v>0.07252958999710968</v>
+        <v>-0.2005099590240661</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.2230972623852646</v>
+        <v>-0.2416296191535385</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.03269076855963249</v>
+        <v>0.0285685874055131</v>
       </c>
       <c r="M59" t="n">
-        <v>0.216837015174292</v>
+        <v>0.1954484722639578</v>
       </c>
     </row>
     <row r="60">
@@ -2878,40 +2878,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.568615017576738</v>
+        <v>0.07179675341720357</v>
       </c>
       <c r="C60" t="n">
-        <v>1.366402152648833</v>
+        <v>-0.7217783974960714</v>
       </c>
       <c r="D60" t="n">
-        <v>1.253708099262649</v>
+        <v>-5.361611379156834</v>
       </c>
       <c r="E60" t="n">
-        <v>-3.873083685242634</v>
+        <v>-7.969066329025956</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.5683672721157432</v>
+        <v>0.3495200991984762</v>
       </c>
       <c r="G60" t="n">
-        <v>3.760420033476638</v>
+        <v>3.213449309925092</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.03275751340546491</v>
+        <v>-0.009489796312255525</v>
       </c>
       <c r="I60" t="n">
-        <v>0.07886216146147688</v>
+        <v>-0.1452355677893184</v>
       </c>
       <c r="J60" t="n">
-        <v>0.07252961412361036</v>
+        <v>-0.2005099599341238</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.2230972716314078</v>
+        <v>-0.2416294410166556</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.03269076728133768</v>
+        <v>0.0285685873077748</v>
       </c>
       <c r="M60" t="n">
-        <v>0.2168370151599106</v>
+        <v>0.1954448256403647</v>
       </c>
     </row>
     <row r="61">
@@ -2919,40 +2919,40 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.5751759508484411</v>
+        <v>0.06989878753566241</v>
       </c>
       <c r="C61" t="n">
-        <v>1.382161423882347</v>
+        <v>-0.7508026243819796</v>
       </c>
       <c r="D61" t="n">
-        <v>1.268167001476476</v>
+        <v>-5.401670951802775</v>
       </c>
       <c r="E61" t="n">
-        <v>-3.917752295635418</v>
+        <v>-8.01737323578431</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.5749193357878862</v>
+        <v>0.3552310796505723</v>
       </c>
       <c r="G61" t="n">
-        <v>3.803794553434072</v>
+        <v>3.252537720765295</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.03275751315945308</v>
+        <v>-0.009489796242512638</v>
       </c>
       <c r="I61" t="n">
-        <v>0.07886216106412741</v>
+        <v>-0.1452355687323383</v>
       </c>
       <c r="J61" t="n">
-        <v>0.07252961442890268</v>
+        <v>-0.2005099584847567</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.2230972722087615</v>
+        <v>-0.2416292321111124</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.0326907687037874</v>
+        <v>0.02856858742509342</v>
       </c>
       <c r="M61" t="n">
-        <v>0.2168370150902206</v>
+        <v>0.1954448175146757</v>
       </c>
     </row>
     <row r="62">
@@ -2960,40 +2960,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.5817368840598902</v>
+        <v>0.06800082166809079</v>
       </c>
       <c r="C62" t="n">
-        <v>1.397920695117328</v>
+        <v>-0.7798268514561695</v>
       </c>
       <c r="D62" t="n">
-        <v>1.282625903673826</v>
+        <v>-5.441730524409425</v>
       </c>
       <c r="E62" t="n">
-        <v>-3.962420906035808</v>
+        <v>-8.065680100720733</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.5814713997494305</v>
+        <v>0.3609420601261565</v>
       </c>
       <c r="G62" t="n">
-        <v>3.847169073375747</v>
+        <v>3.291626129978764</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.03275752777320392</v>
+        <v>-0.009489796379843525</v>
       </c>
       <c r="I62" t="n">
-        <v>0.07886219164130613</v>
+        <v>-0.1452355692935867</v>
       </c>
       <c r="J62" t="n">
-        <v>0.07252959013343883</v>
+        <v>-0.2005099561454966</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.2230972622610649</v>
+        <v>-0.2416296472333131</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.03269076853121078</v>
+        <v>0.02856858726140489</v>
       </c>
       <c r="M62" t="n">
-        <v>0.2168370152275543</v>
+        <v>0.1954448613946758</v>
       </c>
     </row>
     <row r="63">
@@ -3001,40 +3001,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.588297820185133</v>
+        <v>0.06610285577304528</v>
       </c>
       <c r="C63" t="n">
-        <v>1.413679972505894</v>
+        <v>-0.8088510786427975</v>
       </c>
       <c r="D63" t="n">
-        <v>1.297084801057937</v>
+        <v>-5.481790097055949</v>
       </c>
       <c r="E63" t="n">
-        <v>-4.007089514535127</v>
+        <v>-8.113987048761819</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.5880234636792789</v>
+        <v>0.3666530405689622</v>
       </c>
       <c r="G63" t="n">
-        <v>3.890543593345049</v>
+        <v>3.330714547976816</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.0327575135847414</v>
+        <v>-0.009489796275804247</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0788621613969068</v>
+        <v>-0.1452355712254994</v>
       </c>
       <c r="J63" t="n">
-        <v>0.07252961401061563</v>
+        <v>-0.2005099589109919</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.2230972712800079</v>
+        <v>-0.2416294297304725</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.03269076870424215</v>
+        <v>0.02856858726007484</v>
       </c>
       <c r="M63" t="n">
-        <v>0.2168370146984557</v>
+        <v>0.1954448353958526</v>
       </c>
     </row>
     <row r="64">
@@ -3042,40 +3042,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.5948587534636572</v>
+        <v>0.06420488989881949</v>
       </c>
       <c r="C64" t="n">
-        <v>1.429439243789976</v>
+        <v>-0.837875306216557</v>
       </c>
       <c r="D64" t="n">
-        <v>1.311543703278911</v>
+        <v>-5.521849669652736</v>
       </c>
       <c r="E64" t="n">
-        <v>-4.051758124837815</v>
+        <v>-8.162293953260155</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.5945755276434153</v>
+        <v>0.372364021011487</v>
       </c>
       <c r="G64" t="n">
-        <v>3.933918113207759</v>
+        <v>3.369802960770031</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.03275751354425935</v>
+        <v>-0.009489796214970678</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0788621611461737</v>
+        <v>-0.1452355692349321</v>
       </c>
       <c r="J64" t="n">
-        <v>0.07252961430923184</v>
+        <v>-0.2005099605324465</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.2230972719360496</v>
+        <v>-0.2416294896868042</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.03269076900960499</v>
+        <v>0.02856858726390057</v>
       </c>
       <c r="M64" t="n">
-        <v>0.2168370788498351</v>
+        <v>0.195444847818783</v>
       </c>
     </row>
     <row r="65">
@@ -3083,40 +3083,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.6014196867309948</v>
+        <v>0.06230692403675261</v>
       </c>
       <c r="C65" t="n">
-        <v>1.445198515029641</v>
+        <v>-0.8668995333914167</v>
       </c>
       <c r="D65" t="n">
-        <v>1.326002605494133</v>
+        <v>-5.56190924236685</v>
       </c>
       <c r="E65" t="n">
-        <v>-4.096426735226041</v>
+        <v>-8.210600869761285</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.6011275916645769</v>
+        <v>0.378075001454781</v>
       </c>
       <c r="G65" t="n">
-        <v>3.977292645919172</v>
+        <v>3.408891376050289</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.03275751326490713</v>
+        <v>-0.009489796213060838</v>
       </c>
       <c r="I65" t="n">
-        <v>0.07886216119132507</v>
+        <v>-0.1452355694098362</v>
       </c>
       <c r="J65" t="n">
-        <v>0.07252959034978634</v>
+        <v>-0.2005099612002737</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.2230972623994724</v>
+        <v>-0.2416301233998301</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.03269076877677435</v>
+        <v>0.02856858715320422</v>
       </c>
       <c r="M65" t="n">
-        <v>0.2168370151751446</v>
+        <v>0.1954447080509936</v>
       </c>
     </row>
     <row r="66">
@@ -3124,40 +3124,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.6079806199401246</v>
+        <v>0.0604089581750589</v>
       </c>
       <c r="C66" t="n">
-        <v>1.460957786302832</v>
+        <v>-0.8959237606011323</v>
       </c>
       <c r="D66" t="n">
-        <v>1.340461502897173</v>
+        <v>-5.601968814998983</v>
       </c>
       <c r="E66" t="n">
-        <v>-4.141095343734659</v>
+        <v>-8.258907913128763</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.6076796556414916</v>
+        <v>0.3837859818759107</v>
       </c>
       <c r="G66" t="n">
-        <v>4.02066716587572</v>
+        <v>3.447979763349603</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.03275751341142327</v>
+        <v>-0.009489796284447296</v>
       </c>
       <c r="I66" t="n">
-        <v>0.07886216111650336</v>
+        <v>-0.1452355676511614</v>
       </c>
       <c r="J66" t="n">
-        <v>0.07252961413726178</v>
+        <v>-0.2005100032813941</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.2230972718096936</v>
+        <v>-0.2416295590329867</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.03269076880792454</v>
+        <v>0.02856858736265623</v>
       </c>
       <c r="M66" t="n">
-        <v>0.2168370151073304</v>
+        <v>0.1954400805505436</v>
       </c>
     </row>
     <row r="67">
@@ -3165,40 +3165,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.6145415531837244</v>
+        <v>0.05851099229908359</v>
       </c>
       <c r="C67" t="n">
-        <v>1.47671705755789</v>
+        <v>-0.9249479874590821</v>
       </c>
       <c r="D67" t="n">
-        <v>1.354920405085707</v>
+        <v>-5.642028387693942</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.18576395411379</v>
+        <v>-8.307214843513027</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6142317196263645</v>
+        <v>0.3894969623389903</v>
       </c>
       <c r="G67" t="n">
-        <v>4.064041685817918</v>
+        <v>3.487067224244193</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.0327575279251332</v>
+        <v>-0.009489796357715699</v>
       </c>
       <c r="I67" t="n">
-        <v>0.07886219146434807</v>
+        <v>-0.1452355701398938</v>
       </c>
       <c r="J67" t="n">
-        <v>0.07252961406878083</v>
+        <v>-0.2005099588234287</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.2230972716837825</v>
+        <v>-0.2416296265866024</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.0326907689179734</v>
+        <v>0.02856858721753973</v>
       </c>
       <c r="M67" t="n">
-        <v>0.2168370150129135</v>
+        <v>0.1954448064280175</v>
       </c>
     </row>
     <row r="68">
@@ -3206,40 +3206,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.6211024893189716</v>
+        <v>0.05661302640845582</v>
       </c>
       <c r="C68" t="n">
-        <v>1.492476334905597</v>
+        <v>-0.9539722148150995</v>
       </c>
       <c r="D68" t="n">
-        <v>1.369379307276159</v>
+        <v>-5.682087960353748</v>
       </c>
       <c r="E68" t="n">
-        <v>-4.23043256450097</v>
+        <v>-8.355521787420871</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.6207837836330197</v>
+        <v>0.3952079427729963</v>
       </c>
       <c r="G68" t="n">
-        <v>4.107416205742336</v>
+        <v>3.526155631238179</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.03275751337994426</v>
+        <v>-0.009489796183700135</v>
       </c>
       <c r="I68" t="n">
-        <v>0.07886216130438854</v>
+        <v>-0.1452355679454318</v>
       </c>
       <c r="J68" t="n">
-        <v>0.07252958999257819</v>
+        <v>-0.200509959793327</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.223097261840265</v>
+        <v>-0.2416296204524985</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.03269076869491983</v>
+        <v>0.02856858718889555</v>
       </c>
       <c r="M68" t="n">
-        <v>0.2168370146462735</v>
+        <v>0.1954446028364674</v>
       </c>
     </row>
     <row r="69">
@@ -3247,40 +3247,40 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.6276634225474282</v>
+        <v>0.05471506055265687</v>
       </c>
       <c r="C69" t="n">
-        <v>1.508235606174263</v>
+        <v>-0.9829964417320626</v>
       </c>
       <c r="D69" t="n">
-        <v>1.383838204666156</v>
+        <v>-5.722147532992316</v>
       </c>
       <c r="E69" t="n">
-        <v>-4.275101172931963</v>
+        <v>-8.403828730100983</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6273358475987476</v>
+        <v>0.4009189232012667</v>
       </c>
       <c r="G69" t="n">
-        <v>4.150790725595428</v>
+        <v>3.565243997474052</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.03275751536670679</v>
+        <v>-0.009489796290526088</v>
       </c>
       <c r="I69" t="n">
-        <v>0.07886216127150709</v>
+        <v>-0.1452355685695009</v>
       </c>
       <c r="J69" t="n">
-        <v>0.07252961395253783</v>
+        <v>-0.2005099578092855</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.2230972716624761</v>
+        <v>-0.2416296202933676</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.03269076892115663</v>
+        <v>0.02856858720016625</v>
       </c>
       <c r="M69" t="n">
-        <v>0.2168370151018166</v>
+        <v>0.1954444920544607</v>
       </c>
     </row>
     <row r="70">
@@ -3288,40 +3288,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.6342243561819287</v>
+        <v>0.05281709467549275</v>
       </c>
       <c r="C70" t="n">
-        <v>1.523994877439223</v>
+        <v>-1.012020668774112</v>
       </c>
       <c r="D70" t="n">
-        <v>1.398297106850819</v>
+        <v>-5.762207105672859</v>
       </c>
       <c r="E70" t="n">
-        <v>-4.319769783319121</v>
+        <v>-8.452135672749387</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6338879116043568</v>
+        <v>0.4066299036318006</v>
       </c>
       <c r="G70" t="n">
-        <v>4.194165245539173</v>
+        <v>3.604332341531886</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.03275751354332035</v>
+        <v>-0.009489796188646924</v>
       </c>
       <c r="I70" t="n">
-        <v>0.07886216145366438</v>
+        <v>-0.1452355693166046</v>
       </c>
       <c r="J70" t="n">
-        <v>0.07252961409021751</v>
+        <v>-0.2005099583896375</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.2230972717389985</v>
+        <v>-0.2416296255837158</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.03269076883861999</v>
+        <v>0.0285685872016383</v>
       </c>
       <c r="M70" t="n">
-        <v>0.2168370150838541</v>
+        <v>0.1954446180228934</v>
       </c>
     </row>
     <row r="71">
@@ -3329,40 +3329,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.6407852894340778</v>
+        <v>0.0509191288187108</v>
       </c>
       <c r="C71" t="n">
-        <v>1.539754148704297</v>
+        <v>-1.041044895965413</v>
       </c>
       <c r="D71" t="n">
-        <v>1.412756009047123</v>
+        <v>-5.802266678362348</v>
       </c>
       <c r="E71" t="n">
-        <v>-4.364438393704117</v>
+        <v>-8.500442616456477</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6404399755980063</v>
+        <v>0.4123408840626261</v>
       </c>
       <c r="G71" t="n">
-        <v>4.237539765479372</v>
+        <v>3.643420710808042</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.03275751345688906</v>
+        <v>-0.009489796215526904</v>
       </c>
       <c r="I71" t="n">
-        <v>0.07886216138360647</v>
+        <v>-0.1452355679642332</v>
       </c>
       <c r="J71" t="n">
-        <v>0.07252958967935454</v>
+        <v>-0.2005099601047747</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.2230972624082332</v>
+        <v>-0.2416296979944191</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.03269076877791122</v>
+        <v>0.02856858729952898</v>
       </c>
       <c r="M71" t="n">
-        <v>0.2168370150811256</v>
+        <v>0.1954447646051057</v>
       </c>
     </row>
     <row r="72">
@@ -3370,40 +3370,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.6473462226834072</v>
+        <v>0.04902116295654357</v>
       </c>
       <c r="C72" t="n">
-        <v>1.555513419988584</v>
+        <v>-1.070069122886034</v>
       </c>
       <c r="D72" t="n">
-        <v>1.427214906364431</v>
+        <v>-5.842326250926424</v>
       </c>
       <c r="E72" t="n">
-        <v>-4.409107002226298</v>
+        <v>-8.548749574659841</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.6469920395751938</v>
+        <v>0.4180518645130456</v>
       </c>
       <c r="G72" t="n">
-        <v>4.28091428541741</v>
+        <v>3.682509109429266</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.03275752797268593</v>
+        <v>-0.009489796397876489</v>
       </c>
       <c r="I72" t="n">
-        <v>0.07886219174281747</v>
+        <v>-0.1452355708160143</v>
       </c>
       <c r="J72" t="n">
-        <v>0.07252961405678522</v>
+        <v>-0.2005099585903322</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.223097271772952</v>
+        <v>-0.2416295877854455</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.03269076883361777</v>
+        <v>0.02856858741692856</v>
       </c>
       <c r="M72" t="n">
-        <v>0.2168370151196086</v>
+        <v>0.1954446348964134</v>
       </c>
     </row>
     <row r="73">
@@ -3411,40 +3411,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.6539071588158349</v>
+        <v>0.04712319705785047</v>
       </c>
       <c r="C73" t="n">
-        <v>1.57127269736926</v>
+        <v>-1.099093350377461</v>
       </c>
       <c r="D73" t="n">
-        <v>1.441673808562134</v>
+        <v>-5.882385823488424</v>
       </c>
       <c r="E73" t="n">
-        <v>-4.453775612614547</v>
+        <v>-8.597056510800165</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.6535441035706622</v>
+        <v>0.4237628449869682</v>
       </c>
       <c r="G73" t="n">
-        <v>4.324288805363861</v>
+        <v>3.721597482083396</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.03275751337431818</v>
+        <v>-0.009489796347493669</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0788619341526529</v>
+        <v>-0.1452355696041533</v>
       </c>
       <c r="J73" t="n">
-        <v>0.07252961410998748</v>
+        <v>-0.2005099609106141</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.2230972713626089</v>
+        <v>-0.2416295915958195</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.03269076879814747</v>
+        <v>0.02856858735666743</v>
       </c>
       <c r="M73" t="n">
-        <v>0.2168370146920324</v>
+        <v>0.195444777455391</v>
       </c>
     </row>
     <row r="74">
@@ -3452,40 +3452,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.660468092048248</v>
+        <v>0.04522523116926776</v>
       </c>
       <c r="C74" t="n">
-        <v>1.587031923177902</v>
+        <v>-1.128117577626333</v>
       </c>
       <c r="D74" t="n">
-        <v>1.456132710767152</v>
+        <v>-5.922445396117045</v>
       </c>
       <c r="E74" t="n">
-        <v>-4.498444222920009</v>
+        <v>-8.645363447703104</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.66009616756272</v>
+        <v>0.4294738254488337</v>
       </c>
       <c r="G74" t="n">
-        <v>4.367663325224706</v>
+        <v>3.760685883277197</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.03275751349031843</v>
+        <v>-0.009489796352226798</v>
       </c>
       <c r="I74" t="n">
-        <v>0.07886216134113382</v>
+        <v>-0.1452355686634154</v>
       </c>
       <c r="J74" t="n">
-        <v>0.07252959006337935</v>
+        <v>-0.2005099606279321</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.223097262355816</v>
+        <v>-0.2416295569747307</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.03269076887750089</v>
+        <v>0.02856858727959313</v>
       </c>
       <c r="M74" t="n">
-        <v>0.2168370151327395</v>
+        <v>0.1954447236334705</v>
       </c>
     </row>
     <row r="75">
@@ -3493,40 +3493,40 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.6670290252909836</v>
+        <v>0.04332726527972654</v>
       </c>
       <c r="C75" t="n">
-        <v>1.602791194442908</v>
+        <v>-1.157141804686884</v>
       </c>
       <c r="D75" t="n">
-        <v>1.47059160814544</v>
+        <v>-5.962504968787762</v>
       </c>
       <c r="E75" t="n">
-        <v>-4.543112831436699</v>
+        <v>-8.693670377675158</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.6666482315702847</v>
+        <v>0.4351848058952702</v>
       </c>
       <c r="G75" t="n">
-        <v>4.411037845174113</v>
+        <v>3.799774273696094</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.03275751345278616</v>
+        <v>-0.009489796192865371</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0788621612220743</v>
+        <v>-0.1452355697783527</v>
       </c>
       <c r="J75" t="n">
-        <v>0.07252961406978893</v>
+        <v>-0.2005099586811157</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.2230972717503531</v>
+        <v>-0.2416295952522839</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.03269076884407696</v>
+        <v>0.02856858730115615</v>
       </c>
       <c r="M75" t="n">
-        <v>0.216837015105682</v>
+        <v>0.1954447149308065</v>
       </c>
     </row>
     <row r="76">
@@ -3534,40 +3534,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.6735899585234875</v>
+        <v>0.04142929942207619</v>
       </c>
       <c r="C76" t="n">
-        <v>1.618550465696295</v>
+        <v>-1.186166031970384</v>
       </c>
       <c r="D76" t="n">
-        <v>1.485050510343196</v>
+        <v>-6.002564541414744</v>
       </c>
       <c r="E76" t="n">
-        <v>-4.587781441820366</v>
+        <v>-8.741977315309846</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.6732002955697094</v>
+        <v>0.4408957863460226</v>
       </c>
       <c r="G76" t="n">
-        <v>4.4544123651182</v>
+        <v>3.838862662372764</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.03275751354263362</v>
+        <v>0.002521198759947437</v>
       </c>
       <c r="I76" t="n">
-        <v>0.07886216120078199</v>
+        <v>-2.76985184103972</v>
       </c>
       <c r="J76" t="n">
-        <v>0.07252961400661613</v>
+        <v>-0.1523540330974543</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.223097271698199</v>
+        <v>1.977447171636997</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.03269076878086707</v>
+        <v>-0.1237799762446475</v>
       </c>
       <c r="M76" t="n">
-        <v>0.2168370151150043</v>
+        <v>0.6934409197905027</v>
       </c>
     </row>
     <row r="77">
@@ -3575,40 +3575,40 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.6801508917756365</v>
+        <v>0.04193452072456145</v>
       </c>
       <c r="C77" t="n">
-        <v>1.634309736949943</v>
+        <v>-1.740183127636301</v>
       </c>
       <c r="D77" t="n">
-        <v>1.499509412537613</v>
+        <v>-6.033090835973994</v>
       </c>
       <c r="E77" t="n">
-        <v>-4.632450052200565</v>
+        <v>-8.346504753654617</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.6797523595566286</v>
+        <v>0.4161528642867089</v>
       </c>
       <c r="G77" t="n">
-        <v>4.497786885062968</v>
+        <v>3.977552971321112</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.03275752787069694</v>
+        <v>0.002521198618531258</v>
       </c>
       <c r="I77" t="n">
-        <v>0.07886216131623526</v>
+        <v>-2.769851842666663</v>
       </c>
       <c r="J77" t="n">
-        <v>0.07252959011743321</v>
+        <v>-0.1523540330493343</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.2230972624007843</v>
+        <v>1.977447173094617</v>
       </c>
       <c r="L77" t="n">
-        <v>-0.03269076879269051</v>
+        <v>-0.1237799762368592</v>
       </c>
       <c r="M77" t="n">
-        <v>0.216837015092608</v>
+        <v>0.6934409198309394</v>
       </c>
     </row>
     <row r="78">
@@ -3616,40 +3616,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.686711827903926</v>
+        <v>0.04243974199822233</v>
       </c>
       <c r="C78" t="n">
-        <v>1.650069008212107</v>
+        <v>-2.294200223628093</v>
       </c>
       <c r="D78" t="n">
-        <v>1.513968309929009</v>
+        <v>-6.063617130523994</v>
       </c>
       <c r="E78" t="n">
-        <v>-4.677118660717188</v>
+        <v>-7.951032191707785</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.6863044235493231</v>
+        <v>0.3914099422288948</v>
       </c>
       <c r="G78" t="n">
-        <v>4.541161405002621</v>
+        <v>4.116243280277562</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.03275751348842406</v>
+        <v>0.002521198650897802</v>
       </c>
       <c r="I78" t="n">
-        <v>0.07886216129335073</v>
+        <v>-2.769851842584493</v>
       </c>
       <c r="J78" t="n">
-        <v>0.07252961409925121</v>
+        <v>-0.1523540330129005</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.2230972713342871</v>
+        <v>1.977447173241308</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.03269076866695286</v>
+        <v>-0.123779976240086</v>
       </c>
       <c r="M78" t="n">
-        <v>0.2168370146951588</v>
+        <v>0.6934409197256128</v>
       </c>
     </row>
     <row r="79">
@@ -3657,40 +3657,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.6932727611577576</v>
+        <v>0.04294496327831249</v>
       </c>
       <c r="C79" t="n">
-        <v>1.665828279475714</v>
+        <v>-2.848217319603449</v>
       </c>
       <c r="D79" t="n">
-        <v>1.528427212126757</v>
+        <v>-6.094143425066658</v>
       </c>
       <c r="E79" t="n">
-        <v>-4.721787271033199</v>
+        <v>-7.55555962973158</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.6928564875180978</v>
+        <v>0.3666670201704757</v>
       </c>
       <c r="G79" t="n">
-        <v>4.584535924863079</v>
+        <v>4.254933589212913</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.03275751344904819</v>
+        <v>0.002521198670116992</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0788621612555028</v>
+        <v>-2.769851842677993</v>
       </c>
       <c r="J79" t="n">
-        <v>0.07252961408031466</v>
+        <v>-0.1523540330322811</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.2230972717518489</v>
+        <v>1.977447173228641</v>
       </c>
       <c r="L79" t="n">
-        <v>-0.03269076888363998</v>
+        <v>-0.1237799762625045</v>
       </c>
       <c r="M79" t="n">
-        <v>0.2168370151740078</v>
+        <v>0.6934409197533482</v>
       </c>
     </row>
     <row r="80">
@@ -3698,40 +3698,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.6998336944018575</v>
+        <v>0.04345018456229255</v>
       </c>
       <c r="C80" t="n">
-        <v>1.681587550735672</v>
+        <v>-3.402234415597518</v>
       </c>
       <c r="D80" t="n">
-        <v>1.542886114318684</v>
+        <v>-6.124669719613202</v>
       </c>
       <c r="E80" t="n">
-        <v>-4.766455881416729</v>
+        <v>-7.160087067757914</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.6994085515269358</v>
+        <v>0.3419240981075703</v>
       </c>
       <c r="G80" t="n">
-        <v>4.627910444817875</v>
+        <v>4.393623898153818</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.03275751349105778</v>
+        <v>0.002521198657988875</v>
       </c>
       <c r="I80" t="n">
-        <v>0.07886216125098192</v>
+        <v>-2.769851842679691</v>
       </c>
       <c r="J80" t="n">
-        <v>0.07252959009200777</v>
+        <v>-0.1523540330674857</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.2230972624349159</v>
+        <v>1.977447173071722</v>
       </c>
       <c r="L80" t="n">
-        <v>-0.03269076879178101</v>
+        <v>-0.1237799762536119</v>
       </c>
       <c r="M80" t="n">
-        <v>0.2168370151380259</v>
+        <v>0.6934409197326414</v>
       </c>
     </row>
     <row r="81">
@@ -3739,40 +3739,40 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.7063946276560529</v>
+        <v>0.04395540584384069</v>
       </c>
       <c r="C81" t="n">
-        <v>1.697346821990514</v>
+        <v>-3.956251511591923</v>
       </c>
       <c r="D81" t="n">
-        <v>1.557345011704251</v>
+        <v>-6.155196014166785</v>
       </c>
       <c r="E81" t="n">
-        <v>-4.811124489934148</v>
+        <v>-6.76461450581567</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.7059606155235411</v>
+        <v>0.3171811760464279</v>
       </c>
       <c r="G81" t="n">
-        <v>4.671284964765531</v>
+        <v>4.53231420709057</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.03275751356463467</v>
+        <v>0.002521198660400609</v>
       </c>
       <c r="I81" t="n">
-        <v>0.07886216113389879</v>
+        <v>-2.769851842678518</v>
       </c>
       <c r="J81" t="n">
-        <v>0.07252961404541201</v>
+        <v>-0.1523540330265846</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.2230972716988463</v>
+        <v>1.977447173242333</v>
       </c>
       <c r="L81" t="n">
-        <v>-0.03269076881656474</v>
+        <v>-0.123779976231464</v>
       </c>
       <c r="M81" t="n">
-        <v>0.2168370538319095</v>
+        <v>0.6934409196642961</v>
       </c>
     </row>
     <row r="82">
@@ -3780,40 +3780,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.7129555609162054</v>
+        <v>0.04446062712586858</v>
       </c>
       <c r="C82" t="n">
-        <v>1.713106093242753</v>
+        <v>-4.51026860758609</v>
       </c>
       <c r="D82" t="n">
-        <v>1.571803913904463</v>
+        <v>-6.185722308712188</v>
       </c>
       <c r="E82" t="n">
-        <v>-4.85579310031803</v>
+        <v>-6.369141943839262</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.7125126795257397</v>
+        <v>0.2924382539897527</v>
       </c>
       <c r="G82" t="n">
-        <v>4.714659492456875</v>
+        <v>4.671004516013639</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.03275751360972046</v>
+        <v>0.002521198653174969</v>
       </c>
       <c r="I82" t="n">
-        <v>0.07886216121326463</v>
+        <v>-2.769851842677881</v>
       </c>
       <c r="J82" t="n">
-        <v>0.07252961398495918</v>
+        <v>-0.1523540330153743</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.2230972716834165</v>
+        <v>1.977447173238003</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.03269076880701505</v>
+        <v>-0.1237799762596171</v>
       </c>
       <c r="M82" t="n">
-        <v>0.2168370151321142</v>
+        <v>0.6934409197314743</v>
       </c>
     </row>
     <row r="83">
@@ -3821,40 +3821,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.719516494172538</v>
+        <v>0.04496584840641498</v>
       </c>
       <c r="C83" t="n">
-        <v>1.728865364501961</v>
+        <v>-5.064285703580135</v>
       </c>
       <c r="D83" t="n">
-        <v>1.586262816093443</v>
+        <v>-6.216248603255345</v>
       </c>
       <c r="E83" t="n">
-        <v>-4.90046171069873</v>
+        <v>-5.97366938186372</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.7190647435237547</v>
+        <v>0.2676953319274094</v>
       </c>
       <c r="G83" t="n">
-        <v>4.758034012402735</v>
+        <v>4.809694824950166</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.03275751356156726</v>
+        <v>0.002521198658340029</v>
       </c>
       <c r="I83" t="n">
-        <v>0.07886216119217158</v>
+        <v>-2.769851842680183</v>
       </c>
       <c r="J83" t="n">
-        <v>0.07252959013576576</v>
+        <v>-0.1523540330708209</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.2230972619400524</v>
+        <v>1.977447173070546</v>
       </c>
       <c r="L83" t="n">
-        <v>-0.03269076866877185</v>
+        <v>-0.1237799762591436</v>
       </c>
       <c r="M83" t="n">
-        <v>0.21683701467839</v>
+        <v>0.6934409197585375</v>
       </c>
     </row>
     <row r="84">
@@ -3862,40 +3862,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.7260774274352826</v>
+        <v>0.0454710696880314</v>
       </c>
       <c r="C84" t="n">
-        <v>1.744624635756826</v>
+        <v>-5.618302799574646</v>
       </c>
       <c r="D84" t="n">
-        <v>1.600721713476116</v>
+        <v>-6.246774897809599</v>
       </c>
       <c r="E84" t="n">
-        <v>-4.945130319121741</v>
+        <v>-5.578196819921709</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.7256168074937119</v>
+        <v>0.2429524098651596</v>
       </c>
       <c r="G84" t="n">
-        <v>4.801408532257168</v>
+        <v>4.948385133892106</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.03275751356896318</v>
+        <v>0.002521198665151145</v>
       </c>
       <c r="I84" t="n">
-        <v>0.07886216120056155</v>
+        <v>-2.76985184267847</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0725296141100311</v>
+        <v>-0.1523540330243454</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.2230972717668983</v>
+        <v>1.9774471732412</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.03269076879132626</v>
+        <v>-0.123779976255543</v>
       </c>
       <c r="M84" t="n">
-        <v>0.2168370151400154</v>
+        <v>0.6934409197592315</v>
       </c>
     </row>
     <row r="85">
@@ -3903,40 +3903,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.7326383606937525</v>
+        <v>0.04597629097101586</v>
       </c>
       <c r="C85" t="n">
-        <v>1.760383907014578</v>
+        <v>-6.172319895568812</v>
       </c>
       <c r="D85" t="n">
-        <v>1.615180615670959</v>
+        <v>-6.277301192354553</v>
       </c>
       <c r="E85" t="n">
-        <v>-4.989798929504522</v>
+        <v>-5.182724257945527</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.7321688714885437</v>
+        <v>0.2182094878036425</v>
       </c>
       <c r="G85" t="n">
-        <v>4.844783052204119</v>
+        <v>5.087075442834189</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.03275751346293298</v>
+        <v>0.002521198664357499</v>
       </c>
       <c r="I85" t="n">
-        <v>0.07886216119467603</v>
+        <v>-2.769851842678846</v>
       </c>
       <c r="J85" t="n">
-        <v>0.07252961406910689</v>
+        <v>-0.1523540330300916</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.223097271720373</v>
+        <v>1.977447173107627</v>
       </c>
       <c r="L85" t="n">
-        <v>-0.03269076878791566</v>
+        <v>-0.1237799762339594</v>
       </c>
       <c r="M85" t="n">
-        <v>0.2168370151316594</v>
+        <v>0.6934409198101326</v>
       </c>
     </row>
     <row r="86">
@@ -3944,40 +3944,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.7391992939328957</v>
+        <v>0.04648151225384081</v>
       </c>
       <c r="C86" t="n">
-        <v>1.77614317827307</v>
+        <v>-6.726336991563052</v>
       </c>
       <c r="D86" t="n">
-        <v>1.629639517858526</v>
+        <v>-6.307827486900662</v>
       </c>
       <c r="E86" t="n">
-        <v>-5.034467539885108</v>
+        <v>-4.787251695996094</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.738720935484967</v>
+        <v>0.1934665657464514</v>
       </c>
       <c r="G86" t="n">
-        <v>4.888157572148911</v>
+        <v>5.225765751786472</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.03275751351625072</v>
+        <v>0.002521198660800048</v>
       </c>
       <c r="I86" t="n">
-        <v>0.07886216120734257</v>
+        <v>-2.769851842675908</v>
       </c>
       <c r="J86" t="n">
-        <v>0.07252958971956916</v>
+        <v>-0.1523540330609918</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.2230972624396992</v>
+        <v>1.977447173075133</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.03269078423682004</v>
+        <v>-0.1237799762681134</v>
       </c>
       <c r="M86" t="n">
-        <v>0.216837015128192</v>
+        <v>0.6934409197577502</v>
       </c>
     </row>
     <row r="87">
@@ -3985,40 +3985,40 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.7457602271859087</v>
+        <v>0.0469867335359509</v>
       </c>
       <c r="C87" t="n">
-        <v>1.791902449538371</v>
+        <v>-7.280354087556704</v>
       </c>
       <c r="D87" t="n">
-        <v>1.64409841517006</v>
+        <v>-6.338353781452947</v>
       </c>
       <c r="E87" t="n">
-        <v>-5.079136148401433</v>
+        <v>-4.391779134053163</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7452730025652141</v>
+        <v>0.1687236436824222</v>
       </c>
       <c r="G87" t="n">
-        <v>4.931532092092315</v>
+        <v>5.364456060728259</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.03275751355655566</v>
+        <v>0.002521198659314504</v>
       </c>
       <c r="I87" t="n">
-        <v>0.07886216118356601</v>
+        <v>-2.76985184267896</v>
       </c>
       <c r="J87" t="n">
-        <v>0.07252961404835297</v>
+        <v>-0.1523540330295264</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.2230972717246256</v>
+        <v>1.977447173241265</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.03269076873880294</v>
+        <v>-0.123779976260448</v>
       </c>
       <c r="M87" t="n">
-        <v>0.2168370151179033</v>
+        <v>0.6934409197572453</v>
       </c>
     </row>
     <row r="88">
@@ -4026,40 +4026,40 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.7523211604356931</v>
+        <v>0.04749195481776147</v>
       </c>
       <c r="C88" t="n">
-        <v>1.807661720794668</v>
+        <v>-7.834371183550967</v>
       </c>
       <c r="D88" t="n">
-        <v>1.658557317359082</v>
+        <v>-6.368880075998938</v>
       </c>
       <c r="E88" t="n">
-        <v>-5.123804758780565</v>
+        <v>-3.996306572076969</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7518250665497686</v>
+        <v>0.143980721619919</v>
       </c>
       <c r="G88" t="n">
-        <v>4.97490661203283</v>
+        <v>5.503146369669945</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.03275751356330693</v>
+        <v>0.002521198663097717</v>
       </c>
       <c r="I88" t="n">
-        <v>0.07886216116194135</v>
+        <v>-2.76985184267803</v>
       </c>
       <c r="J88" t="n">
-        <v>0.07252961408466561</v>
+        <v>-0.152354033029022</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.2230972713733438</v>
+        <v>1.977447173238737</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.03269076869219134</v>
+        <v>-0.1237799762628004</v>
       </c>
       <c r="M88" t="n">
-        <v>0.21683701467947</v>
+        <v>0.6934409197573902</v>
       </c>
     </row>
     <row r="89">
@@ -4067,40 +4067,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.7588820936852045</v>
+        <v>0.04799717610033054</v>
       </c>
       <c r="C89" t="n">
-        <v>1.823420992049511</v>
+        <v>-8.388388279545046</v>
       </c>
       <c r="D89" t="n">
-        <v>1.67301621955101</v>
+        <v>-6.399406370544768</v>
       </c>
       <c r="E89" t="n">
-        <v>-5.168473369092177</v>
+        <v>-3.60083401010128</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.758377130528184</v>
+        <v>0.1192377995569457</v>
       </c>
       <c r="G89" t="n">
-        <v>5.018281131886718</v>
+        <v>5.641836678611657</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.03275751355068728</v>
+        <v>0.00252119866368647</v>
       </c>
       <c r="I89" t="n">
-        <v>0.07886216117660695</v>
+        <v>-2.769851842679432</v>
       </c>
       <c r="J89" t="n">
-        <v>0.07252959008620991</v>
+        <v>-0.1523540328668222</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.2230972624655636</v>
+        <v>1.977447173162068</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.03269076876244981</v>
+        <v>-0.1237799762325066</v>
       </c>
       <c r="M89" t="n">
-        <v>0.2168370151220529</v>
+        <v>0.6934409197270536</v>
       </c>
     </row>
     <row r="90">
@@ -4108,40 +4108,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.7654430269365804</v>
+        <v>0.04850239738301788</v>
       </c>
       <c r="C90" t="n">
-        <v>1.839180263307286</v>
+        <v>-8.942405375539405</v>
       </c>
       <c r="D90" t="n">
-        <v>1.687475116932284</v>
+        <v>-6.429932665058189</v>
       </c>
       <c r="E90" t="n">
-        <v>-5.213141977610322</v>
+        <v>-3.205361448140952</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7649291945159672</v>
+        <v>0.09449487750004607</v>
       </c>
       <c r="G90" t="n">
-        <v>5.061655651828394</v>
+        <v>5.780526987547299</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.03275751351362537</v>
+        <v>0.002521198663575647</v>
       </c>
       <c r="I90" t="n">
-        <v>0.07886216115121959</v>
+        <v>-2.769851842677638</v>
       </c>
       <c r="J90" t="n">
-        <v>0.07252961404869403</v>
+        <v>-0.152354033027452</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.223097271720874</v>
+        <v>1.977447173236031</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.03269076873584709</v>
+        <v>-0.1237799762596813</v>
       </c>
       <c r="M90" t="n">
-        <v>0.2168370151378554</v>
+        <v>0.6934409197569958</v>
       </c>
     </row>
     <row r="91">
@@ -4149,40 +4149,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.7720039601819992</v>
+        <v>0.04900761866568235</v>
       </c>
       <c r="C91" t="n">
-        <v>1.854939534561423</v>
+        <v>-9.496422471533403</v>
       </c>
       <c r="D91" t="n">
-        <v>1.701934019118465</v>
+        <v>-6.460458959603765</v>
       </c>
       <c r="E91" t="n">
-        <v>-5.257810587991614</v>
+        <v>-2.809888886165806</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7714812584982023</v>
+        <v>0.0697519554376967</v>
       </c>
       <c r="G91" t="n">
-        <v>5.105030171773231</v>
+        <v>5.919217296488932</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.03275751351526495</v>
+        <v>0.00252119866408045</v>
       </c>
       <c r="I91" t="n">
-        <v>0.0788621611452331</v>
+        <v>-2.769851842678781</v>
       </c>
       <c r="J91" t="n">
-        <v>0.07252961405135563</v>
+        <v>-0.1523540330284938</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.2230972717317879</v>
+        <v>1.977447173239552</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.03269076877609223</v>
+        <v>-0.1237799762572246</v>
       </c>
       <c r="M91" t="n">
-        <v>0.2168370151121621</v>
+        <v>0.6934409197311125</v>
       </c>
     </row>
     <row r="92">
@@ -4190,40 +4190,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.7785648934350576</v>
+        <v>0.04951283994844776</v>
       </c>
       <c r="C92" t="n">
-        <v>1.870698805818732</v>
+        <v>-10.05043956752763</v>
       </c>
       <c r="D92" t="n">
-        <v>1.716392921315764</v>
+        <v>-6.490985254149551</v>
       </c>
       <c r="E92" t="n">
-        <v>-5.302479198369266</v>
+        <v>-2.414416324189955</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7780333224887142</v>
+        <v>0.04500903337583886</v>
       </c>
       <c r="G92" t="n">
-        <v>5.148404691712566</v>
+        <v>6.057907605425386</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.03275751357183303</v>
+        <v>0.002521198663483513</v>
       </c>
       <c r="I92" t="n">
-        <v>0.07886216117655011</v>
+        <v>-2.769851842676714</v>
       </c>
       <c r="J92" t="n">
-        <v>0.07252959007864973</v>
+        <v>-0.1523540330635651</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.223097262528205</v>
+        <v>1.977447173071236</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.03269076876927102</v>
+        <v>-0.1237799762615172</v>
       </c>
       <c r="M92" t="n">
-        <v>0.2168370151378554</v>
+        <v>0.6934409197570949</v>
       </c>
     </row>
     <row r="93">
@@ -4231,40 +4231,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.7851258266892075</v>
+        <v>0.05001806123109559</v>
       </c>
       <c r="C93" t="n">
-        <v>1.886458077073586</v>
+        <v>-10.60445666352145</v>
       </c>
       <c r="D93" t="n">
-        <v>1.730851818692616</v>
+        <v>-6.521511548702355</v>
       </c>
       <c r="E93" t="n">
-        <v>-5.347147806891209</v>
+        <v>-2.018943762247803</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.7845853864779071</v>
+        <v>0.02026611131312277</v>
       </c>
       <c r="G93" t="n">
-        <v>5.191779211657401</v>
+        <v>6.19659791436704</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.03275751359275141</v>
+        <v>0.002521198663789769</v>
       </c>
       <c r="I93" t="n">
-        <v>0.07886216114751766</v>
+        <v>-2.769851842585999</v>
       </c>
       <c r="J93" t="n">
-        <v>0.07252961182397749</v>
+        <v>-0.1523540329582447</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.2230972712826685</v>
+        <v>1.977447173073113</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.03269076868286902</v>
+        <v>-0.123779976260142</v>
       </c>
       <c r="M93" t="n">
-        <v>0.2168370146952725</v>
+        <v>0.6934409197340057</v>
       </c>
     </row>
     <row r="94">
@@ -4272,40 +4272,40 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.7916867599519066</v>
+        <v>0.05052328251380483</v>
       </c>
       <c r="C94" t="n">
-        <v>1.902217348328451</v>
+        <v>-11.1584737594971</v>
       </c>
       <c r="D94" t="n">
-        <v>1.745310720428818</v>
+        <v>-6.552037843234077</v>
       </c>
       <c r="E94" t="n">
-        <v>-5.391816417198807</v>
+        <v>-1.62347120030528</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7911374504476367</v>
+        <v>-0.004476810749317984</v>
       </c>
       <c r="G94" t="n">
-        <v>5.235153731513904</v>
+        <v>6.335288223304072</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.03275751360866756</v>
+        <v>0.002521198662623813</v>
       </c>
       <c r="I94" t="n">
-        <v>0.07886216118013124</v>
+        <v>-2.769851842679494</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0725296140629333</v>
+        <v>-0.1523540330306163</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.2230972717171223</v>
+        <v>1.977447173235316</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.03269076875403698</v>
+        <v>-0.123779976259891</v>
       </c>
       <c r="M94" t="n">
-        <v>0.2168370151089221</v>
+        <v>0.6934409197573126</v>
       </c>
     </row>
     <row r="95">
@@ -4313,40 +4313,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.7982476932134234</v>
+        <v>0.05102850379627964</v>
       </c>
       <c r="C95" t="n">
-        <v>1.917976619582565</v>
+        <v>-11.71249085549147</v>
       </c>
       <c r="D95" t="n">
-        <v>1.759769622619302</v>
+        <v>-6.582564137780285</v>
       </c>
       <c r="E95" t="n">
-        <v>-5.436485027574983</v>
+        <v>-1.227998638330278</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.7976895144366478</v>
+        <v>-0.02921973281170913</v>
       </c>
       <c r="G95" t="n">
-        <v>5.278528251452919</v>
+        <v>6.47397853224577</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.03275751361594352</v>
+        <v>0.002521198664464591</v>
       </c>
       <c r="I95" t="n">
-        <v>0.0788621611545517</v>
+        <v>-2.769851842678122</v>
       </c>
       <c r="J95" t="n">
-        <v>0.07252959004218468</v>
+        <v>-0.1523540330620358</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.223097262509333</v>
+        <v>1.977447173072916</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.03269076881201727</v>
+        <v>-0.1237799762591746</v>
       </c>
       <c r="M95" t="n">
-        <v>0.2168370219151825</v>
+        <v>0.693440919699906</v>
       </c>
     </row>
     <row r="96">
@@ -4354,40 +4354,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.8048086264734849</v>
+        <v>0.05153372507912332</v>
       </c>
       <c r="C96" t="n">
-        <v>1.933735890837385</v>
+        <v>-12.26650795148556</v>
       </c>
       <c r="D96" t="n">
-        <v>1.774228519997592</v>
+        <v>-6.613090432332782</v>
       </c>
       <c r="E96" t="n">
-        <v>-5.481153636094606</v>
+        <v>-0.83252607638779</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.8042415784314338</v>
+        <v>-0.05396265487395716</v>
       </c>
       <c r="G96" t="n">
-        <v>5.321902772756338</v>
+        <v>6.612668841175974</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.03275751335392366</v>
+        <v>0.002521198663779513</v>
       </c>
       <c r="I96" t="n">
-        <v>0.07886216112942197</v>
+        <v>-2.769851842690866</v>
       </c>
       <c r="J96" t="n">
-        <v>0.07252961404402282</v>
+        <v>-0.1523540330304584</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.2230972717103011</v>
+        <v>1.977447173237838</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.03269076875517385</v>
+        <v>-0.1237799762594981</v>
       </c>
       <c r="M96" t="n">
-        <v>0.216837015114379</v>
+        <v>0.6934409197571696</v>
       </c>
     </row>
     <row r="97">
@@ -4395,40 +4395,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.8113695596998952</v>
+        <v>0.05203894636179041</v>
       </c>
       <c r="C97" t="n">
-        <v>1.949495162093966</v>
+        <v>-12.82052504748221</v>
       </c>
       <c r="D97" t="n">
-        <v>1.788687422196335</v>
+        <v>-6.643616726878959</v>
       </c>
       <c r="E97" t="n">
-        <v>-5.525822246467962</v>
+        <v>-0.437053514412282</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.8107936424177166</v>
+        <v>-0.07870557693627037</v>
       </c>
       <c r="G97" t="n">
-        <v>5.365277292696444</v>
+        <v>6.751359150117645</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.03275751346974225</v>
+        <v>0.002521198664845803</v>
       </c>
       <c r="I97" t="n">
-        <v>0.07886216116195589</v>
+        <v>-2.769851842586736</v>
       </c>
       <c r="J97" t="n">
-        <v>0.07252961401197318</v>
+        <v>-0.1523540327375589</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.2230972717245119</v>
+        <v>1.977447173109581</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.0326907686994673</v>
+        <v>-0.1237799762595174</v>
       </c>
       <c r="M97" t="n">
-        <v>0.2168370151091494</v>
+        <v>0.6934409197554068</v>
       </c>
     </row>
     <row r="98">
@@ -4436,40 +4436,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.8179304929379925</v>
+        <v>0.05254416764467691</v>
       </c>
       <c r="C98" t="n">
-        <v>1.965254433351719</v>
+        <v>-13.374542143458</v>
       </c>
       <c r="D98" t="n">
-        <v>1.803146324378081</v>
+        <v>-6.674143021366501</v>
       </c>
       <c r="E98" t="n">
-        <v>-5.57049085684416</v>
+        <v>-0.04158095246244899</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.8173457063985421</v>
+        <v>-0.103448498998589</v>
       </c>
       <c r="G98" t="n">
-        <v>5.408651812635506</v>
+        <v>6.890049459058962</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.03275751357137828</v>
+        <v>0.002521198664256489</v>
       </c>
       <c r="I98" t="n">
-        <v>0.07886216116557933</v>
+        <v>-2.769851842678191</v>
       </c>
       <c r="J98" t="n">
-        <v>0.07252958786809297</v>
+        <v>-0.1523540331174269</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.2230972712625459</v>
+        <v>1.977447173225895</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.03269076874471466</v>
+        <v>-0.1237799762594193</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2168370146710004</v>
+        <v>0.6934409197557053</v>
       </c>
     </row>
     <row r="99">
@@ -4477,40 +4477,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.8244914261935066</v>
+        <v>0.05304938892747897</v>
       </c>
       <c r="C99" t="n">
-        <v>1.981013704610199</v>
+        <v>-13.92855923945211</v>
       </c>
       <c r="D99" t="n">
-        <v>1.817605221309324</v>
+        <v>-6.704669315930088</v>
       </c>
       <c r="E99" t="n">
-        <v>-5.615159467147734</v>
+        <v>0.3538916095106672</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.8238977703771394</v>
+        <v>-0.128191421060888</v>
       </c>
       <c r="G99" t="n">
-        <v>5.452026332487302</v>
+        <v>7.028739768000339</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.03275751358638494</v>
+        <v>0.002521198663238543</v>
       </c>
       <c r="I99" t="n">
-        <v>0.07886216114375146</v>
+        <v>-2.769851842678312</v>
       </c>
       <c r="J99" t="n">
-        <v>0.07252961401194476</v>
+        <v>-0.1523540330292537</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.2230972717098463</v>
+        <v>1.977447173236192</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.03269076873880294</v>
+        <v>-0.1237799762599745</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2168370151091494</v>
+        <v>0.6934409197581994</v>
       </c>
     </row>
     <row r="100">
@@ -4518,40 +4518,40 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.831052359452022</v>
+        <v>0.05355461021007708</v>
       </c>
       <c r="C100" t="n">
-        <v>1.996772975865769</v>
+        <v>-14.48257633544625</v>
       </c>
       <c r="D100" t="n">
-        <v>1.832064123491065</v>
+        <v>-6.735195610476023</v>
       </c>
       <c r="E100" t="n">
-        <v>-5.659828077523909</v>
+        <v>0.7493641714858452</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.8304498343593747</v>
+        <v>-0.1529343431232968</v>
       </c>
       <c r="G100" t="n">
-        <v>5.495400852426545</v>
+        <v>7.167430076942214</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.03275751357888161</v>
+        <v>0.002521198662135477</v>
       </c>
       <c r="I100" t="n">
-        <v>0.07886216116194135</v>
+        <v>-2.769851842678021</v>
       </c>
       <c r="J100" t="n">
-        <v>0.07252961402652509</v>
+        <v>-0.1523540330292171</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.2230970657889773</v>
+        <v>1.97744717332862</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.03269076351716649</v>
+        <v>-0.123779976213914</v>
       </c>
       <c r="M100" t="n">
-        <v>0.2168369705177611</v>
+        <v>0.6934409194570179</v>
       </c>
     </row>
   </sheetData>
